--- a/public/data/et.xlsx
+++ b/public/data/et.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1237">
   <si>
     <t>Hindi</t>
   </si>
@@ -1843,283 +1843,1888 @@
     <t>We are enjoying a fun picnic with our family and also playing interesting games along with delicious food.</t>
   </si>
   <si>
-    <t>मैंने खाना खा लिया है।</t>
-  </si>
-  <si>
-    <t>I have eaten food.</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>Present perfect tense used for an action completed recently.</t>
-  </si>
-  <si>
-    <t>उसने अपनी किताबें पढ़ ली हैं।</t>
-  </si>
-  <si>
-    <t>He has read his books.</t>
-  </si>
-  <si>
-    <t>Present perfect is used to show completion of action.</t>
-  </si>
-  <si>
-    <t>हमने अभी तक यह फिल्म नहीं देखी है।</t>
-  </si>
-  <si>
-    <t>We have not watched this movie yet.</t>
-  </si>
-  <si>
-    <t>Negative sentence using present perfect.</t>
-  </si>
-  <si>
-    <t>बच्चों ने होमवर्क पूरा कर लिया है।</t>
-  </si>
-  <si>
-    <t>The children have completed their homework.</t>
-  </si>
-  <si>
-    <t>Describes a recently completed action.</t>
-  </si>
-  <si>
-    <t>वह अभी-अभी यहाँ आया है।</t>
-  </si>
-  <si>
-    <t>He has just arrived here.</t>
-  </si>
-  <si>
-    <t>Has' is used for singular subject in present perfect tense.</t>
-  </si>
-  <si>
-    <t>मैंने इस विषय पर बहुत सोचा है।</t>
-  </si>
-  <si>
-    <t>I have thought a lot on this topic.</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>On' is used when referring to a subject of discussion.</t>
-  </si>
-  <si>
-    <t>उसने मुझे पहले ही बता दिया था।</t>
-  </si>
-  <si>
-    <t>He had already told me.</t>
-  </si>
-  <si>
-    <t>Had' is used for past perfect, as it happened before another past action.</t>
-  </si>
-  <si>
-    <t>क्या तुमने उसे कभी देखा है?</t>
-  </si>
-  <si>
-    <t>Have you ever seen him?</t>
-  </si>
-  <si>
-    <t>Have' is used with 'you' in present perfect tense.</t>
-  </si>
-  <si>
-    <t>तुमने इस किताब को क्यों चुना है?</t>
-  </si>
-  <si>
-    <t>Why have you chosen this book?</t>
-  </si>
-  <si>
-    <t>Why' is used to ask for reason, 'have' with past participle for present perfect.</t>
-  </si>
-  <si>
-    <t>उसने अपना काम समय पर पूरा कर लिया है।</t>
-  </si>
-  <si>
-    <t>She has finished her work on time.</t>
-  </si>
-  <si>
-    <t>Has' is used for singular subjects in present perfect tense.</t>
-  </si>
-  <si>
-    <t>मैंने हमेशा इस समस्या पर विचार किया है।</t>
-  </si>
-  <si>
-    <t>I have always thought about this problem.</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>On' is incorrect here, 'about' fits better when referring to a problem.</t>
-  </si>
-  <si>
-    <t>तुमने यह निर्णय क्यों लिया है?</t>
-  </si>
-  <si>
-    <t>Why have you made this decision?</t>
-  </si>
-  <si>
-    <t>Why' asks for a reason, present perfect is used for a recent decision.</t>
-  </si>
-  <si>
-    <t>हमने इस शहर में कई साल बिताए हैं।</t>
-  </si>
-  <si>
-    <t>We have spent many years in this city.</t>
-  </si>
-  <si>
-    <t>In' is used when referring to location within a place.</t>
-  </si>
-  <si>
-    <t>उन्होंने कई बार इस मुद्दे पर चर्चा की है।</t>
-  </si>
-  <si>
-    <t>They have discussed this issue many times.</t>
-  </si>
-  <si>
-    <t>On' is not needed because 'discuss' directly refers to the issue.</t>
-  </si>
-  <si>
-    <t>क्या आपने यह खबर पहले सुनी है?</t>
-  </si>
-  <si>
-    <t>Have you heard this news before?</t>
-  </si>
-  <si>
-    <t>Before' is commonly used with present perfect for past experiences.</t>
-  </si>
-  <si>
-    <t>मैं सुबह से पढ़ रहा हूँ।</t>
-  </si>
-  <si>
-    <t>I have been studying since morning.</t>
-  </si>
-  <si>
-    <t>Have been' is used for ongoing actions starting in the past.</t>
-  </si>
-  <si>
-    <t>वह दो घंटे से टीवी देख रही है।</t>
-  </si>
-  <si>
-    <t>She has been watching TV for two hours.</t>
-  </si>
-  <si>
-    <t>Has been' is used with singular subjects.</t>
-  </si>
-  <si>
-    <t>हम कई दिनों से इस प्रोजेक्ट पर काम कर रहे हैं।</t>
-  </si>
-  <si>
-    <t>We have been working on this project for several days.</t>
-  </si>
-  <si>
-    <t>Have been' + verb+ing shows continuity.</t>
-  </si>
-  <si>
-    <t>बच्चे खेल के मैदान में खेल रहे हैं।</t>
-  </si>
-  <si>
-    <t>The children have been playing in the playground.</t>
-  </si>
-  <si>
-    <t>Present perfect continuous is used for actions happening over time.</t>
-  </si>
-  <si>
-    <t>वह सुबह से गाना गा रहा है।</t>
-  </si>
-  <si>
-    <t>He has been singing since morning.</t>
-  </si>
-  <si>
-    <t>Since' is used for a specific point in time.</t>
-  </si>
-  <si>
-    <t>मैं कई सालों से इस शहर में रह रहा हूँ।</t>
-  </si>
-  <si>
-    <t>I have been living in this city for many years.</t>
-  </si>
-  <si>
-    <t>In' is used for locations, 'for' is used for duration.</t>
-  </si>
-  <si>
-    <t>तुम पिछले कुछ दिनों से बहुत मेहनत कर रहे हो।</t>
-  </si>
-  <si>
-    <t>You have been working very hard for the past few days.</t>
-  </si>
-  <si>
-    <t>Present perfect continuous shows ongoing effort.</t>
-  </si>
-  <si>
-    <t>क्यों वह इतनी देर से इंतजार कर रही है?</t>
-  </si>
-  <si>
-    <t>Why has she been waiting for so long?</t>
-  </si>
-  <si>
-    <t>Why' asks for the reason, 'has been' shows continuous action.</t>
-  </si>
-  <si>
-    <t>वे सुबह से इस किताब को पढ़ रहे हैं।</t>
-  </si>
-  <si>
-    <t>They have been reading this book since morning.</t>
-  </si>
-  <si>
-    <t>Since' is used for a specific starting point.</t>
-  </si>
-  <si>
-    <t>हम घंटों से इस समस्या को हल करने की कोशिश कर रहे हैं।</t>
-  </si>
-  <si>
-    <t>We have been trying to solve this problem for hours.</t>
-  </si>
-  <si>
-    <t>For' is used to indicate the duration of time.</t>
-  </si>
-  <si>
-    <t>मैंने पिछले कुछ हफ्तों से अपनी अंग्रेजी सुधारने की कोशिश की है।</t>
-  </si>
-  <si>
-    <t>I have been trying to improve my English for the past few weeks.</t>
-  </si>
-  <si>
-    <t>Have been' is used to show ongoing improvement.</t>
-  </si>
-  <si>
-    <t>वे लंबे समय से इस मुद्दे पर चर्चा कर रहे हैं।</t>
-  </si>
-  <si>
-    <t>They have been discussing this issue for a long time.</t>
-  </si>
-  <si>
-    <t>On' is not used with 'discuss,' we use 'about' or nothing.</t>
-  </si>
-  <si>
-    <t>तुम क्यों इतने लंबे समय से शिकायत कर रहे हो?</t>
-  </si>
-  <si>
-    <t>Why have you been complaining for so long?</t>
-  </si>
-  <si>
-    <t>Why' asks the reason, 'have been' shows continuous complaint.</t>
-  </si>
-  <si>
-    <t>हम कई महीनों से इस सॉफ़्टवेयर पर काम कर रहे हैं।</t>
-  </si>
-  <si>
-    <t>We have been working on this software for several months.</t>
-  </si>
-  <si>
-    <t>On' is used to indicate the subject of work.</t>
-  </si>
-  <si>
-    <t>वह सुबह से बारिश होने की प्रतीक्षा कर रहा है।</t>
-  </si>
-  <si>
-    <t>He has been waiting for the rain since morning.</t>
-  </si>
-  <si>
-    <t>For' is used to indicate waiting for something.</t>
+    <t>मैंने यह किताब पढ़ ली है।</t>
+  </si>
+  <si>
+    <t>I have read this book.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, यह किताब (this book) - Object, पढ़ ली है (have read) - Verb</t>
+  </si>
+  <si>
+    <t>उसने अपना काम पूरा कर लिया है।</t>
+  </si>
+  <si>
+    <t>He has completed his work.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, अपना काम (his work) - Object, पूरा कर लिया है (has completed) - Verb</t>
+  </si>
+  <si>
+    <t>हमने नई गाड़ी खरीद ली है।</t>
+  </si>
+  <si>
+    <t>We have bought a new car.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, नई गाड़ी (new car) - Object, खरीद ली है (have bought) - Verb</t>
+  </si>
+  <si>
+    <t>वे पहले ही नाश्ता कर चुके हैं।</t>
+  </si>
+  <si>
+    <t>They have already had breakfast.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, पहले ही (already) - Time, नाश्ता (breakfast) - Object, कर चुके हैं (have had) - Verb</t>
+  </si>
+  <si>
+    <t>क्या तुमने यह फिल्म देखी है?</t>
+  </si>
+  <si>
+    <t>Have you watched this movie?</t>
+  </si>
+  <si>
+    <t>तुमने (You) - Subject, यह फिल्म (this movie) - Object, देखी है (have watched) - Verb</t>
+  </si>
+  <si>
+    <t>मेरे माता-पिता अमेरिका जा चुके हैं।</t>
+  </si>
+  <si>
+    <t>My parents have gone to America.</t>
+  </si>
+  <si>
+    <t>मेरे माता-पिता (My parents) - Subject, अमेरिका (America) - Place, जा चुके हैं (have gone) - Verb</t>
+  </si>
+  <si>
+    <t>वह कई बार लंदन जा चुका है।</t>
+  </si>
+  <si>
+    <t>He has been to London many times.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, कई बार (many times) - Frequency, लंदन (London) - Place, जा चुका है (has been) - Verb</t>
+  </si>
+  <si>
+    <t>हमने अपना फैसला बदल दिया है।</t>
+  </si>
+  <si>
+    <t>We have changed our decision.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, अपना फैसला (our decision) - Object, बदल दिया है (have changed) - Verb</t>
+  </si>
+  <si>
+    <t>वह स्कूल से वापस आ चुका है।</t>
+  </si>
+  <si>
+    <t>He has returned from school.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, स्कूल से (from school) - Place, वापस आ चुका है (has returned) - Verb</t>
+  </si>
+  <si>
+    <t>क्या आपने उसे पहले कभी देखा है?</t>
+  </si>
+  <si>
+    <t>Have you ever seen him before?</t>
+  </si>
+  <si>
+    <t>आपने (You) - Subject, उसे (him) - Object, पहले कभी (ever before) - Time, देखा है (have seen) - Verb</t>
+  </si>
+  <si>
+    <t>डॉक्टर ने मेरी रिपोर्ट देख ली है।</t>
+  </si>
+  <si>
+    <t>The doctor has checked my report.</t>
+  </si>
+  <si>
+    <t>डॉक्टर (Doctor) - Subject, मेरी रिपोर्ट (my report) - Object, देख ली है (has checked) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने यह घर पिछले साल खरीदा था।</t>
+  </si>
+  <si>
+    <t>I have bought this house last year.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, यह घर (this house) - Object, पिछले साल (last year) - Time, खरीदा था (have bought) - Verb</t>
+  </si>
+  <si>
+    <t>वह अपने दोस्त से मिल चुका है।</t>
+  </si>
+  <si>
+    <t>He has met his friend.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, अपने दोस्त (his friend) - Object, से मिल चुका है (has met) - Verb</t>
+  </si>
+  <si>
+    <t>हमने पहले ही टिकट बुक कर ली है।</t>
+  </si>
+  <si>
+    <t>We have already booked the ticket.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, पहले ही (already) - Time, टिकट (ticket) - Object, बुक कर ली है (have booked) - Verb</t>
+  </si>
+  <si>
+    <t>मैं इस परीक्षा में सफल हो चुका हूँ।</t>
+  </si>
+  <si>
+    <t>I have passed this exam.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, इस परीक्षा (this exam) - Object, में सफल हो चुका हूँ (have passed) - Verb</t>
+  </si>
+  <si>
+    <t>क्या उसने कभी विदेशी खाना चखा है?</t>
+  </si>
+  <si>
+    <t>Has he ever tasted foreign food?</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, कभी (ever) - Time, विदेशी खाना (foreign food) - Object, चखा है (has tasted) - Verb</t>
+  </si>
+  <si>
+    <t>उन्होंने अपना निर्णय बदल दिया है।</t>
+  </si>
+  <si>
+    <t>They have changed their decision.</t>
+  </si>
+  <si>
+    <t>उन्होंने (They) - Subject, अपना निर्णय (their decision) - Object, बदल दिया है (have changed) - Verb</t>
+  </si>
+  <si>
+    <t>हमने नया व्यापार शुरू किया है।</t>
+  </si>
+  <si>
+    <t>We have started a new business.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, नया व्यापार (new business) - Object, शुरू किया है (have started) - Verb</t>
+  </si>
+  <si>
+    <t>वह नौकरी के लिए आवेदन कर चुका है।</t>
+  </si>
+  <si>
+    <t>He has applied for the job.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, नौकरी (job) - Object, के लिए आवेदन कर चुका है (has applied) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने इस गाने को कई बार सुना है।</t>
+  </si>
+  <si>
+    <t>I have listened to this song many times.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, इस गाने को (this song) - Object, कई बार (many times) - Frequency, सुना है (have listened) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने अपना फोन खो दिया है।</t>
+  </si>
+  <si>
+    <t>I have lost my phone.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, अपना फोन (my phone) - Object, खो दिया है (have lost) - Verb</t>
+  </si>
+  <si>
+    <t>क्या तुमने अपना होमवर्क पूरा कर लिया है?</t>
+  </si>
+  <si>
+    <t>Have you completed your homework?</t>
+  </si>
+  <si>
+    <t>तुमने (You) - Subject, अपना होमवर्क (your homework) - Object, पूरा कर लिया है (have completed) - Verb</t>
+  </si>
+  <si>
+    <t>उसने अभी तक नाश्ता नहीं किया है।</t>
+  </si>
+  <si>
+    <t>He has not eaten breakfast yet.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, अभी तक (yet) - Time, नाश्ता (breakfast) - Object, नहीं किया है (has not eaten) - Verb</t>
+  </si>
+  <si>
+    <t>हमने इस फिल्म को कई बार देखा है।</t>
+  </si>
+  <si>
+    <t>We have watched this movie many times.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, इस फिल्म को (this movie) - Object, कई बार (many times) - Frequency, देखा है (have watched) - Verb</t>
+  </si>
+  <si>
+    <t>उन्होंने हमारी मदद की है।</t>
+  </si>
+  <si>
+    <t>They have helped us.</t>
+  </si>
+  <si>
+    <t>उन्होंने (They) - Subject, हमारी (us) - Object, मदद की है (have helped) - Verb</t>
+  </si>
+  <si>
+    <t>क्या आपने कभी कोई किताब लिखी है?</t>
+  </si>
+  <si>
+    <t>Have you ever written a book?</t>
+  </si>
+  <si>
+    <t>आपने (You) - Subject, कभी (ever) - Time, कोई किताब (a book) - Object, लिखी है (have written) - Verb</t>
+  </si>
+  <si>
+    <t>मैं इस समस्या को हल कर चुका हूँ।</t>
+  </si>
+  <si>
+    <t>I have solved this problem.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, इस समस्या (this problem) - Object, हल कर चुका हूँ (have solved) - Verb</t>
+  </si>
+  <si>
+    <t>उसने हाल ही में एक नया घर खरीदा है।</t>
+  </si>
+  <si>
+    <t>He has recently bought a new house.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, हाल ही में (recently) - Time, एक नया घर (a new house) - Object, खरीदा है (has bought) - Verb</t>
+  </si>
+  <si>
+    <t>वे कई वर्षों से यहाँ रह चुके हैं।</t>
+  </si>
+  <si>
+    <t>They have lived here for many years.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, कई वर्षों से (for many years) - Time, यहाँ (here) - Place, रह चुके हैं (have lived) - Verb</t>
+  </si>
+  <si>
+    <t>हमने सभी आवश्यक दस्तावेज़ जमा कर दिए हैं।</t>
+  </si>
+  <si>
+    <t>We have submitted all necessary documents.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, सभी आवश्यक दस्तावेज़ (all necessary documents) - Object, जमा कर दिए हैं (have submitted) - Verb</t>
+  </si>
+  <si>
+    <t>डॉक्टर ने मेरी जांच कर ली है।</t>
+  </si>
+  <si>
+    <t>The doctor has examined me.</t>
+  </si>
+  <si>
+    <t>डॉक्टर (Doctor) - Subject, मेरी (me) - Object, जांच कर ली है (has examined) - Verb</t>
+  </si>
+  <si>
+    <t>क्या आपने कभी समुद्र तट पर छुट्टियाँ बिताई हैं?</t>
+  </si>
+  <si>
+    <t>Have you ever spent holidays at the beach?</t>
+  </si>
+  <si>
+    <t>आपने (You) - Subject, कभी (ever) - Time, समुद्र तट (beach) - Place, छुट्टियाँ बिताई हैं (have spent holidays) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने अपना पूरा पैसा बैंक में जमा कर दिया है।</t>
+  </si>
+  <si>
+    <t>I have deposited all my money in the bank.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, अपना पूरा पैसा (all my money) - Object, बैंक में (in the bank) - Place, जमा कर दिया है (have deposited) - Verb</t>
+  </si>
+  <si>
+    <t>वह अपना इंटरव्यू दे चुका है।</t>
+  </si>
+  <si>
+    <t>He has given his interview.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, अपना इंटरव्यू (his interview) - Object, दे चुका है (has given) - Verb</t>
+  </si>
+  <si>
+    <t>हमने आज बहुत मेहनत की है।</t>
+  </si>
+  <si>
+    <t>We have worked hard today.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, आज (today) - Time, बहुत मेहनत (hard) - Manner, की है (have worked) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने यह पत्र भेज दिया है।</t>
+  </si>
+  <si>
+    <t>I have sent this letter.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, यह पत्र (this letter) - Object, भेज दिया है (have sent) - Verb</t>
+  </si>
+  <si>
+    <t>क्या तुमने कभी घोड़े की सवारी की है?</t>
+  </si>
+  <si>
+    <t>Have you ever ridden a horse?</t>
+  </si>
+  <si>
+    <t>तुमने (You) - Subject, कभी (ever) - Time, घोड़े की सवारी (horse riding) - Object, की है (have ridden) - Verb</t>
+  </si>
+  <si>
+    <t>उसने अपनी गाड़ी बेच दी है।</t>
+  </si>
+  <si>
+    <t>He has sold his car.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, अपनी गाड़ी (his car) - Object, बेच दी है (has sold) - Verb</t>
+  </si>
+  <si>
+    <t>हमने पहले ही टिकट खरीद ली है।</t>
+  </si>
+  <si>
+    <t>We have already purchased the ticket.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, पहले ही (already) - Time, टिकट (ticket) - Object, खरीद ली है (have purchased) - Verb</t>
+  </si>
+  <si>
+    <t>वे दो बार इस परीक्षा में असफल हो चुके हैं।</t>
+  </si>
+  <si>
+    <t>They have failed this exam twice.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, दो बार (twice) - Frequency, इस परीक्षा (this exam) - Object, असफल हो चुके हैं (have failed) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने अपना काम पूरा कर लिया है।</t>
+  </si>
+  <si>
+    <t>I have finished my work.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, अपना काम (my work) - Object, पूरा कर लिया है (have finished) - Verb</t>
+  </si>
+  <si>
+    <t>क्या तुमने अपनी ट्रेनिंग पूरी कर ली है?</t>
+  </si>
+  <si>
+    <t>Have you completed your training?</t>
+  </si>
+  <si>
+    <t>तुमने (You) - Subject, अपनी ट्रेनिंग (your training) - Object, पूरी कर ली है (have completed) - Verb</t>
+  </si>
+  <si>
+    <t>हमने एक नई कंपनी शुरू की है।</t>
+  </si>
+  <si>
+    <t>We have started a new company.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, एक नई कंपनी (a new company) - Object, शुरू की है (have started) - Verb</t>
+  </si>
+  <si>
+    <t>उसने अपना फोन अपडेट कर लिया है।</t>
+  </si>
+  <si>
+    <t>He has updated his phone.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, अपना फोन (his phone) - Object, अपडेट कर लिया है (has updated) - Verb</t>
+  </si>
+  <si>
+    <t>क्या आपने इस मुद्दे को सुलझा लिया है?</t>
+  </si>
+  <si>
+    <t>Have you resolved this issue?</t>
+  </si>
+  <si>
+    <t>आपने (You) - Subject, इस मुद्दे को (this issue) - Object, सुलझा लिया है (have resolved) - Verb</t>
+  </si>
+  <si>
+    <t>उन्होंने इस समस्या का हल ढूंढ लिया है।</t>
+  </si>
+  <si>
+    <t>They have found the solution to this problem.</t>
+  </si>
+  <si>
+    <t>उन्होंने (They) - Subject, इस समस्या का हल (solution to this problem) - Object, ढूंढ लिया है (have found) - Verb</t>
+  </si>
+  <si>
+    <t>उसने हाल ही में नई नौकरी जॉइन की है।</t>
+  </si>
+  <si>
+    <t>He has recently joined a new job.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, हाल ही में (recently) - Time, नई नौकरी (new job) - Object, जॉइन की है (has joined) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने अपना पासपोर्ट नवीनीकरण करवा लिया है।</t>
+  </si>
+  <si>
+    <t>I have renewed my passport.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, अपना पासपोर्ट (my passport) - Object, नवीनीकरण करवा लिया है (have renewed) - Verb</t>
+  </si>
+  <si>
+    <t>उन्होंने हमारी टीम के साथ मीटिंग की है।</t>
+  </si>
+  <si>
+    <t>They have had a meeting with our team.</t>
+  </si>
+  <si>
+    <t>उन्होंने (They) - Subject, हमारी टीम (our team) - Object, के साथ मीटिंग की है (have had a meeting) - Verb</t>
+  </si>
+  <si>
+    <t>हमने सभी ग्राहकों को मेल भेज दिया है।</t>
+  </si>
+  <si>
+    <t>We have sent emails to all customers.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, सभी ग्राहकों को (to all customers) - Object, मेल भेज दिया है (have sent emails) - Verb</t>
+  </si>
+  <si>
+    <t>क्या तुमने कभी सौर ऊर्जा के बारे में सीखा है?</t>
+  </si>
+  <si>
+    <t>Have you ever learned about solar energy?</t>
+  </si>
+  <si>
+    <t>तुमने (You) - Subject, कभी (ever) - Time, सौर ऊर्जा (solar energy) - Object, के बारे में सीखा है (have learned about) - Verb</t>
+  </si>
+  <si>
+    <t>उन्होंने इस योजना पर काम किया है।</t>
+  </si>
+  <si>
+    <t>They have worked on this plan.</t>
+  </si>
+  <si>
+    <t>उन्होंने (They) - Subject, इस योजना (this plan) - Object, पर काम किया है (have worked on) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने तुम्हें पहले ही बताया है।</t>
+  </si>
+  <si>
+    <t>I have already told you.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, तुम्हें (you) - Object, पहले ही (already) - Time, बताया है (have told) - Verb</t>
+  </si>
+  <si>
+    <t>डॉक्टर ने मुझे नई दवा दी है।</t>
+  </si>
+  <si>
+    <t>The doctor has given me new medicine.</t>
+  </si>
+  <si>
+    <t>डॉक्टर (Doctor) - Subject, मुझे (me) - Object, नई दवा (new medicine) - Object, दी है (has given) - Verb</t>
+  </si>
+  <si>
+    <t>क्या आपने उस होटल में कभी खाना खाया है?</t>
+  </si>
+  <si>
+    <t>Have you ever eaten at that hotel?</t>
+  </si>
+  <si>
+    <t>आपने (You) - Subject, कभी (ever) - Time, उस होटल में (at that hotel) - Place, खाना खाया है (have eaten) - Verb</t>
+  </si>
+  <si>
+    <t>उन्होंने हमें इस अभियान में शामिल किया है।</t>
+  </si>
+  <si>
+    <t>They have included us in this campaign.</t>
+  </si>
+  <si>
+    <t>उन्होंने (They) - Subject, हमें (us) - Object, इस अभियान में (in this campaign) - Place, शामिल किया है (have included) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने उस फिल्म को पहले ही देख लिया है।</t>
+  </si>
+  <si>
+    <t>I have already watched that movie.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, उस फिल्म को (that movie) - Object, पहले ही (already) - Time, देख लिया है (have watched) - Verb</t>
+  </si>
+  <si>
+    <t>उसने अपने माता-पिता को कॉल किया है।</t>
+  </si>
+  <si>
+    <t>He has called his parents.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, अपने माता-पिता (his parents) - Object, को कॉल किया है (has called) - Verb</t>
+  </si>
+  <si>
+    <t>हमने इस विषय पर चर्चा की है।</t>
+  </si>
+  <si>
+    <t>We have discussed this topic.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, इस विषय पर (about this topic) - Object, चर्चा की है (have discussed) - Verb</t>
+  </si>
+  <si>
+    <t>क्या तुमने इस गाने को पहले सुना है?</t>
+  </si>
+  <si>
+    <t>Have you heard this song before?</t>
+  </si>
+  <si>
+    <t>तुमने (You) - Subject, इस गाने को (this song) - Object, पहले (before) - Time, सुना है (have heard) - Verb</t>
+  </si>
+  <si>
+    <t>He has not had breakfast yet.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, अभी तक (yet) - Time, नाश्ता (breakfast) - Object, नहीं किया है (has not had) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने अपनी किताबें पहले ही बेच दी हैं।</t>
+  </si>
+  <si>
+    <t>I have already sold my books.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, अपनी किताबें (my books) - Object, पहले ही (already) - Time, बेच दी हैं (have sold) - Verb</t>
+  </si>
+  <si>
+    <t>हमने इस विषय पर गहराई से सोचा है।</t>
+  </si>
+  <si>
+    <t>We have thought deeply about this topic.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, इस विषय पर (about this topic) - Object, गहराई से (deeply) - Manner, सोचा है (have thought) - Verb</t>
+  </si>
+  <si>
+    <t>क्या तुमने कभी अंतरिक्ष यात्रा के बारे में सुना है?</t>
+  </si>
+  <si>
+    <t>Have you ever heard about space travel?</t>
+  </si>
+  <si>
+    <t>तुमने (You) - Subject, कभी (ever) - Time, अंतरिक्ष यात्रा (space travel) - Object, के बारे में सुना है (have heard about) - Verb</t>
+  </si>
+  <si>
+    <t>वे इस समस्या का हल निकाल चुके हैं।</t>
+  </si>
+  <si>
+    <t>They have figured out the solution to this problem.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, इस समस्या का हल (solution to this problem) - Object, निकाल चुके हैं (have figured out) - Verb</t>
+  </si>
+  <si>
+    <t>उसने मुझे हाल ही में एक पत्र लिखा है।</t>
+  </si>
+  <si>
+    <t>He has written me a letter recently.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, मुझे (me) - Object, हाल ही में (recently) - Time, एक पत्र लिखा है (has written a letter) - Verb</t>
+  </si>
+  <si>
+    <t>हमने उस दुकान से बहुत सामान खरीदा है।</t>
+  </si>
+  <si>
+    <t>We have bought a lot of stuff from that shop.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, उस दुकान से (from that shop) - Place, बहुत सामान (a lot of stuff) - Object, खरीदा है (have bought) - Verb</t>
+  </si>
+  <si>
+    <t>क्या आपने कभी कोई विदेशी भाषा सीखी है?</t>
+  </si>
+  <si>
+    <t>Have you ever learned a foreign language?</t>
+  </si>
+  <si>
+    <t>आपने (You) - Subject, कभी (ever) - Time, कोई विदेशी भाषा (a foreign language) - Object, सीखी है (have learned) - Verb</t>
+  </si>
+  <si>
+    <t>उसने अपनी परीक्षा के लिए बहुत मेहनत की है।</t>
+  </si>
+  <si>
+    <t>He has worked hard for his exam.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, अपनी परीक्षा के लिए (for his exam) - Purpose, बहुत मेहनत की है (has worked hard) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने अपने सारे ईमेल पहले ही चेक कर लिए हैं।</t>
+  </si>
+  <si>
+    <t>I have already checked all my emails.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, अपने सारे ईमेल (all my emails) - Object, पहले ही (already) - Time, चेक कर लिए हैं (have checked) - Verb</t>
+  </si>
+  <si>
+    <t>हमने उस शो को पहले भी देखा है।</t>
+  </si>
+  <si>
+    <t>We have watched that show before.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, उस शो को (that show) - Object, पहले भी (before) - Time, देखा है (have watched) - Verb</t>
+  </si>
+  <si>
+    <t>उसने अपना बायोडाटा कई कंपनियों में भेजा है।</t>
+  </si>
+  <si>
+    <t>He has sent his resume to several companies.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, अपना बायोडाटा (his resume) - Object, कई कंपनियों में (to several companies) - Place, भेजा है (has sent) - Verb</t>
+  </si>
+  <si>
+    <t>क्या तुमने हाल ही में कोई नई किताब पढ़ी है?</t>
+  </si>
+  <si>
+    <t>Have you read any new book recently?</t>
+  </si>
+  <si>
+    <t>तुमने (You) - Subject, हाल ही में (recently) - Time, कोई नई किताब (any new book) - Object, पढ़ी है (have read) - Verb</t>
+  </si>
+  <si>
+    <t>हमने इस जगह का दौरा कई बार किया है।</t>
+  </si>
+  <si>
+    <t>We have visited this place multiple times.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, इस जगह का दौरा (visited this place) - Object, कई बार (multiple times) - Frequency, किया है (have done) - Verb</t>
+  </si>
+  <si>
+    <t>उसने अपना लैपटॉप अभी तक ठीक नहीं कराया है।</t>
+  </si>
+  <si>
+    <t>He has not repaired his laptop yet.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, अपना लैपटॉप (his laptop) - Object, अभी तक (yet) - Time, ठीक नहीं कराया है (has not repaired) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने हाल ही में एक नई गाड़ी खरीदी है।</t>
+  </si>
+  <si>
+    <t>I have recently bought a new car.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, हाल ही में (recently) - Time, एक नई गाड़ी (a new car) - Object, खरीदी है (have bought) - Verb</t>
+  </si>
+  <si>
+    <t>क्या आपने कभी किसी बड़े मंच पर भाषण दिया है?</t>
+  </si>
+  <si>
+    <t>Have you ever given a speech on a big stage?</t>
+  </si>
+  <si>
+    <t>आपने (You) - Subject, कभी (ever) - Time, किसी बड़े मंच पर (on a big stage) - Place, भाषण दिया है (have given a speech) - Verb</t>
+  </si>
+  <si>
+    <t>हमने इस उत्पाद की गुणवत्ता पहले ही जांच ली है।</t>
+  </si>
+  <si>
+    <t>We have already checked the quality of this product.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, इस उत्पाद की गुणवत्ता (the quality of this product) - Object, पहले ही (already) - Time, जांच ली है (have checked) - Verb</t>
+  </si>
+  <si>
+    <t>उसने मुझे पहले भी इस बारे में बताया है।</t>
+  </si>
+  <si>
+    <t>He has told me about this before.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, मुझे (me) - Object, पहले भी (before) - Time, इस बारे में बताया है (has told about this) - Verb</t>
+  </si>
+  <si>
+    <t>हमने अपने ग्राहकों के लिए विशेष ऑफर तैयार किया है।</t>
+  </si>
+  <si>
+    <t>We have prepared a special offer for our customers.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, अपने ग्राहकों के लिए (for our customers) - Beneficiary, विशेष ऑफर (a special offer) - Object, तैयार किया है (have prepared) - Verb</t>
+  </si>
+  <si>
+    <t>वह खेल रहा है।</t>
+  </si>
+  <si>
+    <t>He has been playing.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, खेल (playing) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं पढ़ रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been reading.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, पढ़ (reading) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे गा रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been singing.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, गा (singing) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम सो रहे हो।</t>
+  </si>
+  <si>
+    <t>You have been sleeping.</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, सो (sleeping) - Verb, रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>बच्चे हँस रहे हैं।</t>
+  </si>
+  <si>
+    <t>The children have been laughing.</t>
+  </si>
+  <si>
+    <t>बच्चे (The children) - Subject, हँस (laughing) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह लिख रही है।</t>
+  </si>
+  <si>
+    <t>She has been writing.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, लिख (writing) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>हम दौड़ रहे हैं।</t>
+  </si>
+  <si>
+    <t>We have been running.</t>
+  </si>
+  <si>
+    <t>हम (We) - Subject, दौड़ (running) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह बोल रहा है।</t>
+  </si>
+  <si>
+    <t>He has been speaking.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, बोल (speaking) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं खाना बना रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been cooking food.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, खाना (food) - Object, बना (cooking) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह टीवी देख रहा है।</t>
+  </si>
+  <si>
+    <t>He has been watching TV.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, टीवी (TV) - Object, देख (watching) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह गाना गा रही है।</t>
+  </si>
+  <si>
+    <t>She has been singing a song.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, गाना (song) - Object, गा (singing) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>हम फिल्म देख रहे हैं।</t>
+  </si>
+  <si>
+    <t>We have been watching a movie.</t>
+  </si>
+  <si>
+    <t>हम (We) - Subject, फिल्म (movie) - Object, देख (watching) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम किताब पढ़ रहे हो।</t>
+  </si>
+  <si>
+    <t>You have been reading a book.</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, किताब (book) - Object, पढ़ (reading) - Verb, रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह खाना खा रहा है।</t>
+  </si>
+  <si>
+    <t>He has been eating food.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, खाना (food) - Object, खा (eating) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं गाड़ी चला रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been driving the car.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, गाड़ी (car) - Object, चला (driving) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह पानी पी रहा है।</t>
+  </si>
+  <si>
+    <t>He has been drinking water.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, पानी (water) - Object, पी (drinking) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>बच्चे खिलौने से खेल रहे हैं।</t>
+  </si>
+  <si>
+    <t>The children have been playing with toys.</t>
+  </si>
+  <si>
+    <t>बच्चे (The children) - Subject, खिलौने (toys) - Object, से (with) - Preposition, खेल (playing) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह फोन पर बात कर रही है।</t>
+  </si>
+  <si>
+    <t>She has been talking on the phone.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, फोन (phone) - Object, पर (on) - Preposition, बात (talking) - Verb, कर रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं अपने दोस्त को पत्र लिख रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been writing a letter to my friend.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, अपने (my) - Possessive pronoun, दोस्त (friend) - Object, को (to) - Preposition, पत्र (letter) - Object, लिख (writing) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने कमरे में सो रहा है।</t>
+  </si>
+  <si>
+    <t>He has been sleeping in his room.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, अपने (his) - Possessive pronoun, कमरे (room) - Object, में (in) - Preposition, सो (sleeping) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह बाजार जा रहा है।</t>
+  </si>
+  <si>
+    <t>He has been going to the market.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, बाजार (market) - Object, जा (going) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं अपना होमवर्क कर रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been doing my homework.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, अपना (my) - Possessive pronoun, होमवर्क (homework) - Object, कर (doing) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने कपड़े धो रही है।</t>
+  </si>
+  <si>
+    <t>She has been washing her clothes.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, अपने (her) - Possessive pronoun, कपड़े (clothes) - Object, धो (washing) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम गाना सुन रहे हो।</t>
+  </si>
+  <si>
+    <t>You have been listening to music.</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, गाना (music) - Object, सुन (listening) - Verb, रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने दोस्त के साथ खेल रहा है।</t>
+  </si>
+  <si>
+    <t>He has been playing with his friend.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, अपने (his) - Possessive pronoun, दोस्त (friend) - Object, के साथ (with) - Preposition, खेल (playing) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं अपने परिवार के साथ बात कर रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been talking with my family.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, अपने (my) - Possessive pronoun, परिवार (family) - Object, के साथ (with) - Preposition, बात (talking) - Verb, कर रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने काम में व्यस्त है।</t>
+  </si>
+  <si>
+    <t>He has been busy with his work.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, अपने (his) - Possessive pronoun, काम (work) - Object, में (with) - Preposition, व्यस्त (busy) - Adjective, है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम अपने सपनों के बारे में सोच रहे हो।</t>
+  </si>
+  <si>
+    <t>You have been thinking about your dreams.</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, अपने (your) - Possessive pronoun, सपनों (dreams) - Object, के बारे में (about) - Preposition, सोच (thinking) - Verb, रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने दोस्त को पढ़ा रहा है।</t>
+  </si>
+  <si>
+    <t>He has been teaching his friend.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, अपने (his) - Possessive pronoun, दोस्त (friend) - Object, को (to) - Preposition, पढ़ा (teaching) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं अपने कमरे में सफाई कर रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been cleaning my room.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, अपने (my) - Possessive pronoun, कमरे (room) - Object, में (in) - Preposition, सफाई (cleaning) - Verb, कर रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने बगीचे में पौधे लगा रही है।</t>
+  </si>
+  <si>
+    <t>She has been planting plants in her garden.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, अपने (her) - Possessive pronoun, बगीचे (garden) - Object, में (in) - Preposition, पौधे (plants) - Object, लगा (planting) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम अपने दोस्त को फोन कर रहे हो।</t>
+  </si>
+  <si>
+    <t>You have been calling your friend.</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, अपने (your) - Possessive pronoun, दोस्त (friend) - Object, को (to) - Preposition, फोन (calling) - Verb, कर रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने कुत्ते को टहला रहा है।</t>
+  </si>
+  <si>
+    <t>He has been walking his dog.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, अपने (his) - Possessive pronoun, कुत्ते (dog) - Object, को (to) - Preposition, टहला (walking) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं अपने गिटार का अभ्यास कर रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been practicing my guitar.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, अपने (my) - Possessive pronoun, गिटार (guitar) - Object, का (of) - Preposition, अभ्यास (practicing) - Verb, कर रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने बच्चों को कहानी सुना रही है।</t>
+  </si>
+  <si>
+    <t>She has been telling stories to her children.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, अपने (her) - Possessive pronoun, बच्चों (children) - Object, को (to) - Preposition, कहानी (stories) - Object, सुना (telling) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम अपने घर का पेंट कर रहे हो।</t>
+  </si>
+  <si>
+    <t>You have been painting your house.</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, अपने (your) - Possessive pronoun, घर (house) - Object, का (of) - Preposition, पेंट (painting) - Verb, कर रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने कार्यालय में काम कर रहा है।</t>
+  </si>
+  <si>
+    <t>He has been working in his office.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, अपने (his) - Possessive pronoun, कार्यालय (office) - Object, में (in) - Preposition, काम (working) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं अपने दोस्त के साथ खेल रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been playing with my friend.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, अपने (my) - Possessive pronoun, दोस्त (friend) - Object, के साथ (with) - Preposition, खेल (playing) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने बालों को संवार रही है।</t>
+  </si>
+  <si>
+    <t>She has been combing her hair.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, अपने (her) - Possessive pronoun, बालों (hair) - Object, को (to) - Preposition, संवार (combing) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम अपने कमरे में सजावट कर रहे हो।</t>
+  </si>
+  <si>
+    <t>You have been decorating your room.</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, अपने (your) - Possessive pronoun, कमरे (room) - Object, में (in) - Preposition, सजावट (decorating) - Verb, कर रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने बगीचे में पानी दे रहा है।</t>
+  </si>
+  <si>
+    <t>He has been watering his garden.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, अपने (his) - Possessive pronoun, बगीचे (garden) - Object, में (in) - Preposition, पानी (water) - Object, दे (watering) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं अपने कपड़े इस्त्री कर रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been ironing my clothes.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, अपने (my) - Possessive pronoun, कपड़े (clothes) - Object, इस्त्री (ironing) - Verb, कर रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने बच्चों को पढ़ा रही है।</t>
+  </si>
+  <si>
+    <t>She has been teaching her children.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, अपने (her) - Possessive pronoun, बच्चों (children) - Object, को (to) - Preposition, पढ़ा (teaching) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम अपने दोस्त को मैसेज भेज रहे हो।</t>
+  </si>
+  <si>
+    <t>You have been messaging your friend.</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, अपने (your) - Possessive pronoun, दोस्त (friend) - Object, को (to) - Preposition, मैसेज (messaging) - Verb, भेज रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने कुत्ते को खाना खिला रहा है।</t>
+  </si>
+  <si>
+    <t>He has been feeding his dog.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, अपने (his) - Possessive pronoun, कुत्ते (dog) - Object, को (to) - Preposition, खाना (food) - Object, खिला (feeding) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं अपने घर की सफाई कर रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been cleaning my house.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, अपने (my) - Possessive pronoun, घर (house) - Object, की (of) - Preposition, सफाई (cleaning) - Verb, कर रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने बालों को धो रही है।</t>
+  </si>
+  <si>
+    <t>She has been washing her hair.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, अपने (her) - Possessive pronoun, बालों (hair) - Object, को (to) - Preposition, धो (washing) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम अपने कमरे में सो रहे हो।</t>
+  </si>
+  <si>
+    <t>You have been sleeping in your room.</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, अपने (your) - Possessive pronoun, कमरे (room) - Object, में (in) - Preposition, सो (sleeping) - Verb, रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने दोस्त को फोन कर रहा है।</t>
+  </si>
+  <si>
+    <t>He has been calling his friend.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, अपने (his) - Possessive pronoun, दोस्त (friend) - Object, को (to) - Preposition, फोन (calling) - Verb, कर रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह अपने बगीचे में फूल लगा रही है।</t>
+  </si>
+  <si>
+    <t>She has been planting flowers in her garden.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, अपने (her) - Possessive pronoun, बगीचे (garden) - Object, में (in) - Preposition, फूल (flowers) - Object, लगा (planting) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं अपने कपड़े धो रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been washing my clothes.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, अपने (my) - Possessive pronoun, कपड़े (clothes) - Object, धो (washing) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम अपने दोस्त को मदद कर रहे हो।</t>
+  </si>
+  <si>
+    <t>You have been helping your friend.</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, अपने (your) - Possessive pronoun, दोस्त (friend) - Object, को (to) - Preposition, मदद (helping) - Verb, कर रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह दो घंटे से पढ़ रहा है।</t>
+  </si>
+  <si>
+    <t>He has been studying for two hours.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, दो घंटे से (for two hours) - Time duration, पढ़ (studying) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं सुबह से काम कर रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been working since morning.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, सुबह से (since morning) - Time reference, काम (working) - Verb, कर रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे एक हफ्ते से यहाँ रह रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been living here for a week.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, एक हफ्ते से (for a week) - Time duration, यहाँ (here) - Adverb, रह (living) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम क्यों रो रहे हो?</t>
+  </si>
+  <si>
+    <t>Why have you been crying?</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, क्यों (why) - Question word, रो (crying) - Verb, रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>It has been raining.</t>
+  </si>
+  <si>
+    <t>बारिश (Rain) - Subject, हो (raining) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह दो दिन से बीमार है।</t>
+  </si>
+  <si>
+    <t>He has been sick for two days.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, दो दिन से (for two days) - Time duration, बीमार (sick) - Adjective, है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं एक घंटे से तुम्हारा इंतज़ार कर रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been waiting for you for an hour.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, एक घंटे से (for an hour) - Time duration, तुम्हारा (your) - Possessive pronoun, इंतज़ार (waiting) - Verb, कर रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह सुबह से खाना बना रही है।</t>
+  </si>
+  <si>
+    <t>She has been cooking food since morning.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, सुबह से (since morning) - Time reference, खाना (food) - Object, बना (cooking) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम कब से यहाँ बैठे हो?</t>
+  </si>
+  <si>
+    <t>Since when have you been sitting here?</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, कब से (since when) - Time reference, यहाँ (here) - Adverb, बैठे (sitting) - Verb, हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह तीन दिन से बुखार से पीड़ित है।</t>
+  </si>
+  <si>
+    <t>He has been suffering from fever for three days.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, तीन दिन से (for three days) - Time duration, बुखार (fever) - Object, से (from) - Preposition, पीड़ित (suffering) - Verb, है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं दो घंटे से गाना सुन रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been listening to music for two hours.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, दो घंटे से (for two hours) - Time duration, गाना (music) - Object, सुन (listening) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह एक हफ्ते से अपने दोस्त को फोन कर रहा है।</t>
+  </si>
+  <si>
+    <t>He has been calling his friend for a week.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, एक हफ्ते से (for a week) - Time duration, अपने (his) - Possessive pronoun, दोस्त (friend) - Object, को (to) - Preposition, फोन (calling) - Verb, कर रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम दो घंटे से क्या कर रहे हो?</t>
+  </si>
+  <si>
+    <t>What have you been doing for two hours?</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, दो घंटे से (for two hours) - Time duration, क्या (what) - Question word, कर (doing) - Verb, रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह सुबह से अपने कमरे में सो रहा है।</t>
+  </si>
+  <si>
+    <t>He has been sleeping in his room since morning.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, सुबह से (since morning) - Time reference, अपने (his) - Possessive pronoun, कमरे (room) - Object, में (in) - Preposition, सो (sleeping) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं दो दिन से इस किताब को पढ़ रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been reading this book for two days.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, दो दिन से (for two days) - Time duration, इस (this) - Demonstrative pronoun, किताब (book) - Object, को (to) - Preposition, पढ़ (reading) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह एक घंटे से गाना गा रही है।</t>
+  </si>
+  <si>
+    <t>She has been singing a song for an hour.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, एक घंटे से (for an hour) - Time duration, गाना (song) - Object, गा (singing) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>तुम दो घंटे से कहाँ जा रहे हो?</t>
+  </si>
+  <si>
+    <t>Where have you been going for two hours?</t>
+  </si>
+  <si>
+    <t>तुम (You) - Subject, दो घंटे से (for two hours) - Time duration, कहाँ (where) - Question word, जा (going) - Verb, रहे हो (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह सुबह से अपने बगीचे में काम कर रहा है।</t>
+  </si>
+  <si>
+    <t>He has been working in his garden since morning.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, सुबह से (since morning) - Time reference, अपने (his) - Possessive pronoun, बगीचे (garden) - Object, में (in) - Preposition, काम (working) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं दो घंटे से अपने दोस्त को पत्र लिख रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been writing a letter to my friend for two hours.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, दो घंटे से (for two hours) - Time duration, अपने (my) - Possessive pronoun, दोस्त (friend) - Object, को (to) - Preposition, पत्र (letter) - Object, लिख (writing) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह तीन दिन से अपने कुत्ते को टहला रहा है।</t>
+  </si>
+  <si>
+    <t>He has been walking his dog for three days.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, तीन दिन से (for three days) - Time duration, अपने (his) - Possessive pronoun, कुत्ते (dog) - Object, को (to) - Preposition, टहला (walking) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह सुबह से किताब पढ़ रहा है।</t>
+  </si>
+  <si>
+    <t>He has been reading the book since morning.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, सुबह से (since morning) - Time duration, किताब (book) - Object, पढ़ (reading) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे तीन घंटे से फुटबॉल खेल रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been playing football for three hours.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, तीन घंटे से (for three hours) - Time duration, फुटबॉल (football) - Object, खेल (playing) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं पूरे दिन काम कर रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been working all day.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, पूरे दिन (all day) - Time duration, काम (working) - Verb, कर (doing) - Helping verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह एक घंटे से नाच रही है।</t>
+  </si>
+  <si>
+    <t>She has been dancing for an hour.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, एक घंटे से (for an hour) - Time duration, नाच (dancing) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे सुबह से बारिश का इंतजार कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been waiting for the rain since morning.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, सुबह से (since morning) - Time duration, बारिश (rain) - Object, का इंतजार कर (waiting for) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>हम दो घंटे से फिल्म देख रहे हैं।</t>
+  </si>
+  <si>
+    <t>We have been watching the movie for two hours.</t>
+  </si>
+  <si>
+    <t>हम (We) - Subject, दो घंटे से (for two hours) - Time duration, फिल्म (movie) - Object, देख (watching) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह आधे घंटे से अपने दोस्त से बात कर रहा है।</t>
+  </si>
+  <si>
+    <t>He has been talking to his friend for half an hour.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, आधे घंटे से (for half an hour) - Time duration, अपने दोस्त (his friend) - Object, से बात कर (talking to) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे कई दिनों से नई तकनीक पर काम कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been working on new technology for several days.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, कई दिनों से (for several days) - Time duration, नई तकनीक (new technology) - Object, पर काम कर (working on) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मेरी माँ सुबह से खाना बना रही हैं।</t>
+  </si>
+  <si>
+    <t>My mother has been cooking food since morning.</t>
+  </si>
+  <si>
+    <t>मेरी माँ (My mother) - Subject, सुबह से (since morning) - Time duration, खाना (food) - Object, बना (cooking) - Verb, रही हैं (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह कुछ समय से नौकरी की तलाश कर रहा है।</t>
+  </si>
+  <si>
+    <t>He has been looking for a job for some time.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, कुछ समय से (for some time) - Time duration, नौकरी (job) - Object, की तलाश कर (looking for) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>हम एक घंटे से अपनी समस्या हल करने की कोशिश कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>We have been trying to solve our problem for an hour.</t>
+  </si>
+  <si>
+    <t>हम (We) - Subject, एक घंटे से (for an hour) - Time duration, अपनी समस्या (our problem) - Object, हल करने की कोशिश कर (trying to solve) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे कई दिनों से अपनी परियोजना पर चर्चा कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been discussing their project for several days.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, कई दिनों से (for several days) - Time duration, अपनी परियोजना (their project) - Object, पर चर्चा कर (discussing) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह काफी समय से संगीत सीख रही है।</t>
+  </si>
+  <si>
+    <t>She has been learning music for a long time.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, काफी समय से (for a long time) - Time duration, संगीत (music) - Object, सीख (learning) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>किसान सुबह से खेत में काम कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>The farmers have been working in the field since morning.</t>
+  </si>
+  <si>
+    <t>किसान (The farmers) - Subject, सुबह से (since morning) - Time duration, खेत में (in the field) - Object, काम कर (working) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह आधे घंटे से बस का इंतजार कर रहा है।</t>
+  </si>
+  <si>
+    <t>He has been waiting for the bus for half an hour.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, आधे घंटे से (for half an hour) - Time duration, बस (bus) - Object, का इंतजार कर (waiting for) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं पिछले कुछ दिनों से योग कर रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been doing yoga for the past few days.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, पिछले कुछ दिनों से (for the past few days) - Time duration, योग (yoga) - Object, कर (doing) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे दो घंटे से परीक्षा के लिए पढ़ाई कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been studying for the exam for two hours.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, दो घंटे से (for two hours) - Time duration, परीक्षा के लिए (for the exam) - Object, पढ़ाई कर (studying) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मेरी बहन काफी समय से पियानो बजा रही है।</t>
+  </si>
+  <si>
+    <t>My sister has been playing the piano for a long time.</t>
+  </si>
+  <si>
+    <t>मेरी बहन (My sister) - Subject, काफी समय से (for a long time) - Time duration, पियानो (piano) - Object, बजा (playing) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे कुछ महीनों से नई भाषा सीख रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been learning a new language for a few months.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, कुछ महीनों से (for a few months) - Time duration, नई भाषा (new language) - Object, सीख (learning) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वैज्ञानिक कई वर्षों से इस तकनीक पर शोध कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>Scientists have been researching this technology for many years.</t>
+  </si>
+  <si>
+    <t>वैज्ञानिक (Scientists) - Subject, कई वर्षों से (for many years) - Time duration, इस तकनीक (this technology) - Object, पर शोध कर (researching) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह सुबह से पत्र लिख रहा है।</t>
+  </si>
+  <si>
+    <t>He has been writing a letter since morning.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, सुबह से (since morning) - Time duration, पत्र (letter) - Object, लिख (writing) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे दो दिनों से यात्रा कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been traveling for two days.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, दो दिनों से (for two days) - Time duration, यात्रा (traveling) - Verb, कर (doing) - Helping verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं काफी समय से नई नौकरी की तलाश कर रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been searching for a new job for a long time.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, काफी समय से (for a long time) - Time duration, नई नौकरी (new job) - Object, की तलाश कर (searching for) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह एक घंटे से खिड़की से बाहर देख रही है।</t>
+  </si>
+  <si>
+    <t>She has been looking out of the window for an hour.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, एक घंटे से (for an hour) - Time duration, खिड़की से बाहर (out of the window) - Object, देख (looking) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>हम कई महीनों से इस प्रोजेक्ट पर काम कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>We have been working on this project for several months.</t>
+  </si>
+  <si>
+    <t>हम (We) - Subject, कई महीनों से (for several months) - Time duration, इस प्रोजेक्ट (this project) - Object, पर काम कर (working on) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे सुबह से नई योजना पर चर्चा कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been discussing the new plan since morning.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, सुबह से (since morning) - Time duration, नई योजना (new plan) - Object, पर चर्चा कर (discussing) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह पिछले कुछ दिनों से नई किताब लिख रहा है।</t>
+  </si>
+  <si>
+    <t>He has been writing a new book for the past few days.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, पिछले कुछ दिनों से (for the past few days) - Time duration, नई किताब (new book) - Object, लिख (writing) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मेरी बहन कई महीनों से ड्राइविंग सीख रही है।</t>
+  </si>
+  <si>
+    <t>My sister has been learning to drive for several months.</t>
+  </si>
+  <si>
+    <t>मेरी बहन (My sister) - Subject, कई महीनों से (for several months) - Time duration, ड्राइविंग (driving) - Object, सीख (learning) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह घंटों से फोन पर बात कर रही है।</t>
+  </si>
+  <si>
+    <t>She has been talking on the phone for hours.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, घंटों से (for hours) - Time duration, फोन पर (on the phone) - Object, बात कर (talking) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे कई सालों से इस तकनीक पर शोध कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been researching this technology for many years.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, कई सालों से (for many years) - Time duration, इस तकनीक (this technology) - Object, पर शोध कर (researching) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह तीन घंटे से चित्र बना रहा है।</t>
+  </si>
+  <si>
+    <t>He has been drawing a picture for three hours.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, तीन घंटे से (for three hours) - Time duration, चित्र (picture) - Object, बना (drawing) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मेरी माँ सुबह से घर की सफाई कर रही हैं।</t>
+  </si>
+  <si>
+    <t>My mother has been cleaning the house since morning.</t>
+  </si>
+  <si>
+    <t>मेरी माँ (My mother) - Subject, सुबह से (since morning) - Time duration, घर (house) - Object, की सफाई कर (cleaning) - Verb, रही हैं (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह दो महीने से वजन कम करने की कोशिश कर रही है।</t>
+  </si>
+  <si>
+    <t>She has been trying to lose weight for two months.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, दो महीने से (for two months) - Time duration, वजन कम करने (to lose weight) - Object, की कोशिश कर (trying to) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>हम कुछ दिनों से नई जगह पर घूम रहे हैं।</t>
+  </si>
+  <si>
+    <t>We have been exploring a new place for a few days.</t>
+  </si>
+  <si>
+    <t>हम (We) - Subject, कुछ दिनों से (for a few days) - Time duration, नई जगह (new place) - Object, पर घूम (exploring) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह सुबह से अपने कुत्ते के साथ खेल रहा है।</t>
+  </si>
+  <si>
+    <t>He has been playing with his dog since morning.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, सुबह से (since morning) - Time duration, अपने कुत्ते (his dog) - Object, के साथ खेल (playing with) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे दो घंटे से नदी के किनारे टहल रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been walking along the riverbank for two hours.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, दो घंटे से (for two hours) - Time duration, नदी के किनारे (along the riverbank) - Object, टहल (walking) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं एक साल से अपनी नई कंपनी में काम कर रहा हूँ।</t>
+  </si>
+  <si>
+    <t>I have been working at my new company for a year.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, एक साल से (for a year) - Time duration, अपनी नई कंपनी (my new company) - Object, में काम कर (working at) - Verb, रहा हूँ (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वे कई दिनों से समुद्र तट पर छुट्टियाँ मना रहे हैं।</t>
+  </si>
+  <si>
+    <t>They have been enjoying their vacation at the beach for several days.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, कई दिनों से (for several days) - Time duration, समुद्र तट पर (at the beach) - Object, छुट्टियाँ मना (enjoying vacation) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह शाम से बच्चों को पढ़ा रहा है।</t>
+  </si>
+  <si>
+    <t>He has been teaching children since evening.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, शाम से (since evening) - Time duration, बच्चों (children) - Object, को पढ़ा (teaching) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वैज्ञानिक कई वर्षों से इस दवा पर परीक्षण कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>Scientists have been testing this medicine for many years.</t>
+  </si>
+  <si>
+    <t>वैज्ञानिक (Scientists) - Subject, कई वर्षों से (for many years) - Time duration, इस दवा (this medicine) - Object, पर परीक्षण कर (testing) - Verb, रहे हैं (have been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>जब से उसने नौकरी छोड़ी है, वह पढ़ाई कर रहा है।</t>
+  </si>
+  <si>
+    <t>Since he left the job, he has been studying.</t>
+  </si>
+  <si>
+    <t>जब से (Since) - Conjunction, उसने (he) - Subject, नौकरी (job) - Object, छोड़ी है (left) - Verb, वह (he) - Subject, पढ़ाई (studying) - Verb, कर रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं उसकी प्रतीक्षा कर रहा हूँ जब से वह गया है।</t>
+  </si>
+  <si>
+    <t>I have been waiting for him since he left.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, उसकी (his) - Possessive pronoun, प्रतीक्षा (waiting) - Verb, कर रहा हूँ (have been) - Auxiliary verb, जब से (since) - Conjunction, वह (he) - Subject, गया है (left) - Verb</t>
+  </si>
+  <si>
+    <t>जब से मैंने उसे देखा है, वह मुस्कुरा रहा है।</t>
+  </si>
+  <si>
+    <t>Since I saw him, he has been smiling.</t>
+  </si>
+  <si>
+    <t>जब से (Since) - Conjunction, मैंने (I) - Subject, उसे (him) - Object, देखा (saw) - Verb, वह (he) - Subject, मुस्कुरा (smiling) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह लगातार अपने लक्ष्य की ओर बढ़ रहा है।</t>
+  </si>
+  <si>
+    <t>He has been continuously moving towards his goal.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, लगातार (continuously) - Adverb, अपने (his) - Possessive pronoun, लक्ष्य (goal) - Object, की ओर (towards) - Preposition, बढ़ (moving) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>जब से उसने यह फिल्म देखी है, वह रो रहा है।</t>
+  </si>
+  <si>
+    <t>Since he watched this movie, he has been crying.</t>
+  </si>
+  <si>
+    <t>जब से (Since) - Conjunction, उसने (he) - Subject, यह (this) - Demonstrative pronoun, फिल्म (movie) - Object, देखी (watched) - Verb, वह (he) - Subject, रो (crying) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह तीन दिन से अपने बच्चों को कहानी सुना रही है।</t>
+  </si>
+  <si>
+    <t>She has been telling stories to her children for three days.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, तीन दिन से (for three days) - Time duration, अपने (her) - Possessive pronoun, बच्चों (children) - Object, को (to) - Preposition, कहानी (stories) - Object, सुना (telling) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं उसकी मदद कर रहा हूँ जब से वह बीमार हुआ है।</t>
+  </si>
+  <si>
+    <t>I have been helping him since he fell ill.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, उसकी (his) - Possessive pronoun, मदद (helping) - Verb, कर रहा हूँ (have been) - Auxiliary verb, जब से (since) - Conjunction, वह (he) - Subject, बीमार हुआ है (fell ill) - Verb</t>
+  </si>
+  <si>
+    <t>जब से उसने यह किताब पढ़ी है, वह सोच रहा है।</t>
+  </si>
+  <si>
+    <t>Since he read this book, he has been thinking.</t>
+  </si>
+  <si>
+    <t>जब से (Since) - Conjunction, उसने (he) - Subject, यह (this) - Demonstrative pronoun, किताब (book) - Object, पढ़ी (read) - Verb, वह (he) - Subject, सोच (thinking) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह तीन दिन से अपने बगीचे में पौधे लगा रही है।</t>
+  </si>
+  <si>
+    <t>She has been planting plants in her garden for three days.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, तीन दिन से (for three days) - Time duration, अपने (her) - Possessive pronoun, बगीचे (garden) - Object, में (in) - Preposition, पौधे (plants) - Object, लगा (planting) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं उसकी बात सुन रहा हूँ जब से वह बोलना शुरू हुआ है।</t>
+  </si>
+  <si>
+    <t>I have been listening to him since he started speaking.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, उसकी (his) - Possessive pronoun, बात (listening) - Verb, सुन रहा हूँ (have been) - Auxiliary verb, जब से (since) - Conjunction, वह (he) - Subject, बोलना शुरू हुआ है (started speaking) - Verb</t>
+  </si>
+  <si>
+    <t>वह तीन दिन से अपने कपड़े धो रही है।</t>
+  </si>
+  <si>
+    <t>She has been washing her clothes for three days.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, तीन दिन से (for three days) - Time duration, अपने (her) - Possessive pronoun, कपड़े (clothes) - Object, धो (washing) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>जब से उसने यह गाना सुना है, वह गा रहा है।</t>
+  </si>
+  <si>
+    <t>Since he heard this song, he has been singing.</t>
+  </si>
+  <si>
+    <t>जब से (Since) - Conjunction, उसने (he) - Subject, यह (this) - Demonstrative pronoun, गाना (song) - Object, सुना (heard) - Verb, वह (he) - Subject, गा (singing) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह तीन दिन से अपने कार्यालय में काम कर रहा है।</t>
+  </si>
+  <si>
+    <t>He has been working in his office for three days.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, तीन दिन से (for three days) - Time duration, अपने (his) - Possessive pronoun, कार्यालय (office) - Object, में (in) - Preposition, काम (working) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं उसकी मदद कर रहा हूँ जब से वह परेशान हुआ है।</t>
+  </si>
+  <si>
+    <t>I have been helping him since he got troubled.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, उसकी (his) - Possessive pronoun, मदद (helping) - Verb, कर रहा हूँ (have been) - Auxiliary verb, जब से (since) - Conjunction, वह (he) - Subject, परेशान हुआ है (got troubled) - Verb</t>
+  </si>
+  <si>
+    <t>वह तीन दिन से अपने बालों को संवार रही है।</t>
+  </si>
+  <si>
+    <t>She has been combing her hair for three days.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, तीन दिन से (for three days) - Time duration, अपने (her) - Possessive pronoun, बालों (hair) - Object, को (to) - Preposition, संवार (combing) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>जब से उसने यह फिल्म देखी है, वह हँस रहा है।</t>
+  </si>
+  <si>
+    <t>Since he watched this movie, he has been laughing.</t>
+  </si>
+  <si>
+    <t>जब से (Since) - Conjunction, उसने (he) - Subject, यह (this) - Demonstrative pronoun, फिल्म (movie) - Object, देखी (watched) - Verb, वह (he) - Subject, हँस (laughing) - Verb, रहा है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>वह तीन दिन से अपने बगीचे में फूल लगा रही है।</t>
+  </si>
+  <si>
+    <t>She has been planting flowers in her garden for three days.</t>
+  </si>
+  <si>
+    <t>वह (She) - Subject, तीन दिन से (for three days) - Time duration, अपने (her) - Possessive pronoun, बगीचे (garden) - Object, में (in) - Preposition, फूल (flowers) - Object, लगा (planting) - Verb, रही है (has been) - Auxiliary verb</t>
+  </si>
+  <si>
+    <t>मैं उसकी बात सुन रहा हूँ जब से वह चिल्लाना शुरू हुआ है।</t>
+  </si>
+  <si>
+    <t>I have been listening to him since he started shouting.</t>
+  </si>
+  <si>
+    <t>मैं (I) - Subject, उसकी (his) - Possessive pronoun, बात (listening) - Verb, सुन रहा हूँ (have been) - Auxiliary verb, जब से (since) - Conjunction, वह (he) - Subject, चिल्लाना शुरू हुआ है (started shouting) - Verb</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +3804,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2228,9 +3833,6 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -60599,2384 +62201,1664 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="D2" s="9" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D4" s="9" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D5" s="9" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D6" s="10" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>612</v>
+      <c r="B7" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>615</v>
+      <c r="A8" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>618</v>
+      <c r="A9" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>621</v>
+      <c r="A10" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>624</v>
+      <c r="A11" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>612</v>
+      <c r="A12" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>615</v>
+      <c r="A13" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>618</v>
+      <c r="A14" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>621</v>
+      <c r="A15" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>624</v>
+      <c r="A16" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>612</v>
+      <c r="A17" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>615</v>
+      <c r="A18" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>618</v>
+      <c r="A19" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>621</v>
+      <c r="A20" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>624</v>
+      <c r="A21" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>612</v>
+      <c r="A22" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>615</v>
+      <c r="A23" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>618</v>
+      <c r="A24" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>621</v>
+      <c r="A25" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>624</v>
+      <c r="A26" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>612</v>
+      <c r="A27" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>615</v>
+      <c r="A28" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>618</v>
+      <c r="A29" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>621</v>
+      <c r="A30" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>624</v>
+      <c r="A31" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>612</v>
+      <c r="A32" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>615</v>
+      <c r="A33" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>618</v>
+      <c r="A34" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>621</v>
+      <c r="A35" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>624</v>
+      <c r="A36" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>612</v>
+      <c r="A37" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>615</v>
+      <c r="A38" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>618</v>
+      <c r="A39" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>621</v>
+      <c r="A40" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>624</v>
+      <c r="A41" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>612</v>
+      <c r="A42" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>615</v>
+      <c r="A43" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>618</v>
+      <c r="A44" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>621</v>
+      <c r="A45" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>624</v>
+      <c r="A46" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>612</v>
+      <c r="A47" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>615</v>
+      <c r="A48" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>618</v>
+      <c r="A49" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>621</v>
+      <c r="A50" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>624</v>
+      <c r="A51" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>612</v>
+      <c r="A52" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>615</v>
+      <c r="A53" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>618</v>
+      <c r="A54" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>621</v>
+      <c r="A55" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>624</v>
+      <c r="A56" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>612</v>
+      <c r="A57" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>615</v>
+      <c r="A58" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>618</v>
+      <c r="A59" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>621</v>
+      <c r="A60" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>624</v>
+      <c r="A61" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>612</v>
+      <c r="A62" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>615</v>
+      <c r="A63" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>618</v>
+      <c r="A64" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>621</v>
+      <c r="A65" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>624</v>
+      <c r="A66" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>612</v>
+      <c r="A67" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>615</v>
+      <c r="A68" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>618</v>
+      <c r="A69" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>621</v>
+      <c r="A70" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>624</v>
+      <c r="A71" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>612</v>
+      <c r="A72" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>615</v>
+      <c r="A73" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>618</v>
+      <c r="A74" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>621</v>
+      <c r="A75" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>624</v>
+      <c r="A76" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>612</v>
+      <c r="A77" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>615</v>
+      <c r="A78" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>618</v>
+      <c r="A79" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>621</v>
+      <c r="A80" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>624</v>
+      <c r="A81" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>612</v>
-      </c>
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83">
-      <c r="A83" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>615</v>
-      </c>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
     </row>
     <row r="84">
-      <c r="A84" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>618</v>
-      </c>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>621</v>
-      </c>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
     </row>
     <row r="86">
-      <c r="A86" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>624</v>
-      </c>
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
     </row>
     <row r="87">
-      <c r="A87" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>612</v>
-      </c>
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
     </row>
     <row r="88">
-      <c r="A88" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>615</v>
-      </c>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
     </row>
     <row r="89">
-      <c r="A89" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>618</v>
-      </c>
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
     </row>
     <row r="90">
-      <c r="A90" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>621</v>
-      </c>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
     </row>
     <row r="91">
-      <c r="A91" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>624</v>
-      </c>
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92">
-      <c r="A92" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>612</v>
-      </c>
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
     </row>
     <row r="93">
-      <c r="A93" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>615</v>
-      </c>
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
     </row>
     <row r="94">
-      <c r="A94" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>618</v>
-      </c>
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
     </row>
     <row r="95">
-      <c r="A95" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>621</v>
-      </c>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
     </row>
     <row r="96">
-      <c r="A96" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>624</v>
-      </c>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
     </row>
     <row r="97">
-      <c r="A97" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>612</v>
-      </c>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
     </row>
     <row r="98">
-      <c r="A98" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>615</v>
-      </c>
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
     </row>
     <row r="99">
-      <c r="A99" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>618</v>
-      </c>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
     </row>
     <row r="100">
-      <c r="A100" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>621</v>
-      </c>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
     </row>
     <row r="101">
-      <c r="A101" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>624</v>
-      </c>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
     </row>
     <row r="102">
-      <c r="A102" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>628</v>
-      </c>
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
     </row>
     <row r="103">
-      <c r="A103" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>631</v>
-      </c>
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
     </row>
     <row r="104">
-      <c r="A104" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>634</v>
-      </c>
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
     </row>
     <row r="105">
-      <c r="A105" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>637</v>
-      </c>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
     </row>
     <row r="106">
-      <c r="A106" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
     </row>
     <row r="107">
-      <c r="A107" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>628</v>
-      </c>
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
     </row>
     <row r="108">
-      <c r="A108" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>631</v>
-      </c>
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
     </row>
     <row r="109">
-      <c r="A109" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>634</v>
-      </c>
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
     </row>
     <row r="110">
-      <c r="A110" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>637</v>
-      </c>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
     </row>
     <row r="111">
-      <c r="A111" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
     </row>
     <row r="112">
-      <c r="A112" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>628</v>
-      </c>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
     </row>
     <row r="113">
-      <c r="A113" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>631</v>
-      </c>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
     </row>
     <row r="114">
-      <c r="A114" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>634</v>
-      </c>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
     </row>
     <row r="115">
-      <c r="A115" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>637</v>
-      </c>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
     </row>
     <row r="116">
-      <c r="A116" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
     </row>
     <row r="117">
-      <c r="A117" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>628</v>
-      </c>
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
     </row>
     <row r="118">
-      <c r="A118" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>631</v>
-      </c>
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
     </row>
     <row r="119">
-      <c r="A119" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>634</v>
-      </c>
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
     </row>
     <row r="120">
-      <c r="A120" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>637</v>
-      </c>
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
     </row>
     <row r="121">
-      <c r="A121" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
     </row>
     <row r="122">
-      <c r="A122" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>628</v>
-      </c>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
     </row>
     <row r="123">
-      <c r="A123" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>631</v>
-      </c>
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
     </row>
     <row r="124">
-      <c r="A124" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>634</v>
-      </c>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
     </row>
     <row r="125">
-      <c r="A125" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>637</v>
-      </c>
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
     </row>
     <row r="126">
-      <c r="A126" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
     </row>
     <row r="127">
-      <c r="A127" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>628</v>
-      </c>
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
     </row>
     <row r="128">
-      <c r="A128" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>631</v>
-      </c>
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
     </row>
     <row r="129">
-      <c r="A129" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>634</v>
-      </c>
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
     </row>
     <row r="130">
-      <c r="A130" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>637</v>
-      </c>
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
     </row>
     <row r="131">
-      <c r="A131" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
     </row>
     <row r="132">
-      <c r="A132" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>628</v>
-      </c>
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
     </row>
     <row r="133">
-      <c r="A133" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>631</v>
-      </c>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
     </row>
     <row r="134">
-      <c r="A134" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>634</v>
-      </c>
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
     </row>
     <row r="135">
-      <c r="A135" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>637</v>
-      </c>
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
     </row>
     <row r="136">
-      <c r="A136" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
     </row>
     <row r="137">
-      <c r="A137" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>628</v>
-      </c>
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
     </row>
     <row r="138">
-      <c r="A138" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>631</v>
-      </c>
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
     </row>
     <row r="139">
-      <c r="A139" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>634</v>
-      </c>
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
     </row>
     <row r="140">
-      <c r="A140" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>637</v>
-      </c>
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
     </row>
     <row r="141">
-      <c r="A141" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
     </row>
     <row r="142">
-      <c r="A142" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>628</v>
-      </c>
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
     </row>
     <row r="143">
-      <c r="A143" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>631</v>
-      </c>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
     </row>
     <row r="144">
-      <c r="A144" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>634</v>
-      </c>
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
     </row>
     <row r="145">
-      <c r="A145" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>637</v>
-      </c>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
     </row>
     <row r="146">
-      <c r="A146" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
     </row>
     <row r="147">
-      <c r="A147" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>628</v>
-      </c>
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
     </row>
     <row r="148">
-      <c r="A148" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>631</v>
-      </c>
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
     </row>
     <row r="149">
-      <c r="A149" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>634</v>
-      </c>
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
     </row>
     <row r="150">
-      <c r="A150" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>637</v>
-      </c>
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
     </row>
     <row r="151">
-      <c r="A151" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>640</v>
-      </c>
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
     </row>
     <row r="152">
-      <c r="A152" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>644</v>
-      </c>
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
     </row>
     <row r="153">
-      <c r="A153" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>647</v>
-      </c>
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
     </row>
     <row r="154">
-      <c r="A154" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>650</v>
-      </c>
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
     </row>
     <row r="155">
-      <c r="A155" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>653</v>
-      </c>
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
     </row>
     <row r="156">
-      <c r="A156" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>656</v>
-      </c>
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
     </row>
     <row r="157">
-      <c r="A157" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>644</v>
-      </c>
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
     </row>
     <row r="158">
-      <c r="A158" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>647</v>
-      </c>
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
     </row>
     <row r="159">
-      <c r="A159" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>650</v>
-      </c>
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
     </row>
     <row r="160">
-      <c r="A160" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>653</v>
-      </c>
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
     </row>
     <row r="161">
-      <c r="A161" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>656</v>
-      </c>
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
     </row>
     <row r="162">
-      <c r="A162" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>644</v>
-      </c>
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
     </row>
     <row r="163">
-      <c r="A163" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>647</v>
-      </c>
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
     </row>
     <row r="164">
-      <c r="A164" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>650</v>
-      </c>
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
     </row>
     <row r="165">
-      <c r="A165" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>653</v>
-      </c>
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
     </row>
     <row r="166">
-      <c r="A166" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>656</v>
-      </c>
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
     </row>
     <row r="167">
-      <c r="A167" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>644</v>
-      </c>
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
     </row>
     <row r="168">
-      <c r="A168" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>647</v>
-      </c>
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
     </row>
     <row r="169">
-      <c r="A169" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>650</v>
-      </c>
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
     </row>
     <row r="170">
-      <c r="A170" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>653</v>
-      </c>
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
     </row>
     <row r="171">
-      <c r="A171" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>656</v>
-      </c>
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -62992,6 +63874,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
@@ -63009,2383 +63894,2113 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>657</v>
+        <v>848</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>658</v>
+        <v>849</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>659</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>660</v>
+        <v>851</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>661</v>
+        <v>852</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>662</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>663</v>
+        <v>854</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>664</v>
+        <v>855</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>665</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>666</v>
+        <v>857</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>667</v>
+        <v>858</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>668</v>
+        <v>859</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>669</v>
+        <v>860</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>670</v>
+        <v>861</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>671</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>657</v>
+        <v>863</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>658</v>
+        <v>864</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>659</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>660</v>
+        <v>866</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>661</v>
+        <v>867</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>662</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>663</v>
+        <v>869</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>664</v>
+        <v>870</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>665</v>
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>666</v>
+        <v>872</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>667</v>
+        <v>873</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>668</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>669</v>
+        <v>875</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>670</v>
+        <v>876</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>671</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>657</v>
+        <v>878</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>658</v>
+        <v>879</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>659</v>
+        <v>6</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>660</v>
+        <v>881</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>661</v>
+        <v>882</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>662</v>
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>663</v>
+        <v>884</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>664</v>
+        <v>885</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>665</v>
+        <v>6</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>666</v>
+        <v>887</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>667</v>
+        <v>888</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>668</v>
+        <v>889</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>669</v>
+        <v>890</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>670</v>
+        <v>891</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>671</v>
+        <v>6</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>657</v>
+        <v>893</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>658</v>
+        <v>894</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>659</v>
+        <v>6</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>660</v>
+        <v>896</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>661</v>
+        <v>897</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>662</v>
+        <v>6</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>663</v>
+        <v>899</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>664</v>
+        <v>900</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>665</v>
+        <v>6</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>666</v>
+        <v>902</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>667</v>
+        <v>903</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>668</v>
+        <v>904</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>669</v>
+        <v>905</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>670</v>
+        <v>906</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>671</v>
+        <v>6</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>657</v>
+        <v>908</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>658</v>
+        <v>909</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>659</v>
+        <v>6</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>660</v>
+        <v>911</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>661</v>
+        <v>912</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>662</v>
+        <v>6</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>663</v>
+        <v>914</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>664</v>
+        <v>915</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>665</v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>666</v>
+        <v>917</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>667</v>
+        <v>918</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>668</v>
+        <v>919</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>669</v>
+        <v>920</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>670</v>
+        <v>921</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>671</v>
+        <v>6</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>657</v>
+        <v>923</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>658</v>
+        <v>924</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>659</v>
+        <v>6</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>660</v>
+        <v>926</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>661</v>
+        <v>927</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>662</v>
+        <v>6</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>663</v>
+        <v>929</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>664</v>
+        <v>930</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>665</v>
+        <v>6</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>666</v>
+        <v>932</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>668</v>
+        <v>934</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>669</v>
+        <v>935</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>670</v>
+        <v>936</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>671</v>
+        <v>6</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>657</v>
+        <v>938</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>658</v>
+        <v>939</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>659</v>
+        <v>6</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>660</v>
+        <v>941</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>661</v>
+        <v>942</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>662</v>
+        <v>6</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>663</v>
+        <v>944</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>664</v>
+        <v>945</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>665</v>
+        <v>6</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>666</v>
+        <v>947</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>667</v>
+        <v>948</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>668</v>
+        <v>949</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>669</v>
+        <v>950</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>670</v>
+        <v>951</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>671</v>
+        <v>6</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>657</v>
+        <v>953</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>658</v>
+        <v>954</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>659</v>
+        <v>6</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>660</v>
+        <v>956</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>661</v>
+        <v>957</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>662</v>
+        <v>6</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>663</v>
+        <v>959</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>664</v>
+        <v>960</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>665</v>
+        <v>6</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>666</v>
+        <v>962</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>667</v>
+        <v>963</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>668</v>
+        <v>964</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>669</v>
+        <v>965</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>670</v>
+        <v>966</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>671</v>
+        <v>6</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>657</v>
+        <v>968</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>658</v>
+        <v>969</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>659</v>
+        <v>6</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>660</v>
+        <v>971</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>661</v>
+        <v>972</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>662</v>
+        <v>6</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>663</v>
+        <v>974</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>664</v>
+        <v>975</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>665</v>
+        <v>6</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>666</v>
+        <v>977</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>667</v>
+        <v>978</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>668</v>
+        <v>979</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>669</v>
+        <v>980</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>670</v>
+        <v>981</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>671</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>657</v>
+        <v>983</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>658</v>
+        <v>984</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>659</v>
+        <v>6</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>660</v>
+        <v>986</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>661</v>
+        <v>987</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>662</v>
+        <v>6</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>663</v>
+        <v>989</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>664</v>
+        <v>990</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>665</v>
+        <v>6</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>666</v>
+        <v>992</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>667</v>
+        <v>993</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>668</v>
+        <v>994</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>669</v>
+        <v>947</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>670</v>
+        <v>948</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>671</v>
+        <v>6</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>657</v>
+        <v>950</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>658</v>
+        <v>951</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>659</v>
+        <v>6</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
-        <v>660</v>
+        <v>953</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>661</v>
+        <v>954</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>662</v>
+        <v>6</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>663</v>
+        <v>956</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>664</v>
+        <v>957</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>665</v>
+        <v>6</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
-        <v>666</v>
+        <v>959</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>667</v>
+        <v>960</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>668</v>
+        <v>961</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>669</v>
+        <v>962</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>670</v>
+        <v>963</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>671</v>
+        <v>6</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
-        <v>657</v>
+        <v>965</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>658</v>
+        <v>966</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>659</v>
+        <v>6</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
-        <v>660</v>
+        <v>995</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>661</v>
+        <v>996</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>662</v>
+        <v>6</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>663</v>
+        <v>998</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>664</v>
+        <v>999</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>665</v>
+        <v>6</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>666</v>
+        <v>1001</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>667</v>
+        <v>1002</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>611</v>
+        <v>6</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>668</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>669</v>
+        <v>944</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>670</v>
+        <v>945</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>671</v>
+        <v>6</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>657</v>
+        <v>1004</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>658</v>
+        <v>1005</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>659</v>
+        <v>131</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
-        <v>660</v>
+        <v>1007</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>661</v>
+        <v>1008</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>662</v>
+        <v>131</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>663</v>
+        <v>1010</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>664</v>
+        <v>1011</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>665</v>
+        <v>131</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>666</v>
+        <v>1013</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>667</v>
+        <v>1014</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>611</v>
+        <v>131</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>668</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
-        <v>669</v>
+        <v>333</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>670</v>
+        <v>1016</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>671</v>
+        <v>131</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="s">
-        <v>657</v>
+        <v>1018</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>658</v>
+        <v>1019</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>659</v>
+        <v>131</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
-        <v>660</v>
+        <v>1021</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>661</v>
+        <v>1022</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>662</v>
+        <v>131</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="s">
-        <v>663</v>
+        <v>1024</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>664</v>
+        <v>1025</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>665</v>
+        <v>131</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
-        <v>666</v>
+        <v>1027</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>667</v>
+        <v>1028</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>611</v>
+        <v>131</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>668</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="s">
-        <v>669</v>
+        <v>1030</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>670</v>
+        <v>1031</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>671</v>
+        <v>131</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="s">
-        <v>657</v>
+        <v>1033</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>658</v>
+        <v>1034</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>659</v>
+        <v>131</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="s">
-        <v>660</v>
+        <v>1036</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>661</v>
+        <v>1037</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>662</v>
+        <v>131</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="s">
-        <v>663</v>
+        <v>1039</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>664</v>
+        <v>1040</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>665</v>
+        <v>131</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="s">
-        <v>666</v>
+        <v>1042</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>667</v>
+        <v>1043</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>611</v>
+        <v>131</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>668</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="s">
-        <v>669</v>
+        <v>1045</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>670</v>
+        <v>1046</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>671</v>
+        <v>131</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="s">
-        <v>657</v>
+        <v>1048</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>658</v>
+        <v>1049</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>659</v>
+        <v>131</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="s">
-        <v>660</v>
+        <v>1051</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>661</v>
+        <v>1052</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>662</v>
+        <v>131</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="s">
-        <v>663</v>
+        <v>1054</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>664</v>
+        <v>1055</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>665</v>
+        <v>131</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="s">
-        <v>666</v>
+        <v>1057</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>667</v>
+        <v>1058</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>611</v>
+        <v>131</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>668</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="9" t="s">
-        <v>669</v>
+        <v>1060</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>670</v>
+        <v>1061</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>671</v>
+        <v>131</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>659</v>
+      <c r="A82" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>662</v>
+      <c r="A83" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>665</v>
+      <c r="A84" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>668</v>
+      <c r="A85" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>671</v>
+      <c r="A86" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>659</v>
+      <c r="A87" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>662</v>
+      <c r="A88" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>665</v>
+      <c r="A89" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>668</v>
+      <c r="A90" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>671</v>
+      <c r="A91" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>659</v>
+      <c r="A92" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>662</v>
+      <c r="A93" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>665</v>
+      <c r="A94" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>668</v>
+      <c r="A95" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>671</v>
+      <c r="A96" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>659</v>
+      <c r="A97" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>662</v>
+      <c r="A98" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>665</v>
+      <c r="A99" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>668</v>
+      <c r="A100" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>671</v>
+      <c r="A101" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>674</v>
+      <c r="A102" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>677</v>
+      <c r="A103" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>680</v>
+      <c r="A104" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>683</v>
+      <c r="A105" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>686</v>
+      <c r="A106" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>674</v>
+      <c r="A107" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>677</v>
+      <c r="A108" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>680</v>
+      <c r="A109" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>683</v>
+      <c r="A110" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>686</v>
+      <c r="A111" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>674</v>
+      <c r="A112" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>677</v>
+      <c r="A113" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>680</v>
+      <c r="A114" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>683</v>
+      <c r="A115" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>686</v>
+      <c r="A116" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>674</v>
+      <c r="A117" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>677</v>
+      <c r="A118" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>680</v>
+      <c r="A119" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>683</v>
+      <c r="A120" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>686</v>
+      <c r="A121" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="9" t="s">
-        <v>672</v>
+        <v>1183</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>673</v>
+        <v>1184</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>674</v>
+        <v>232</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="9" t="s">
-        <v>675</v>
+        <v>1186</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>676</v>
+        <v>1187</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>627</v>
+        <v>232</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>677</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="9" t="s">
-        <v>678</v>
+        <v>1030</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>679</v>
+        <v>1031</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>680</v>
+        <v>232</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="9" t="s">
-        <v>681</v>
+        <v>1189</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>682</v>
+        <v>1190</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>683</v>
+        <v>232</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="9" t="s">
-        <v>684</v>
+        <v>1192</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>685</v>
+        <v>1193</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>686</v>
+        <v>232</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="9" t="s">
-        <v>672</v>
+        <v>1195</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>673</v>
+        <v>1196</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>674</v>
+        <v>232</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="9" t="s">
-        <v>675</v>
+        <v>1198</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>676</v>
+        <v>1199</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>627</v>
+        <v>232</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>677</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="9" t="s">
-        <v>678</v>
+        <v>1201</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>679</v>
+        <v>1202</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>680</v>
+        <v>232</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="9" t="s">
-        <v>681</v>
+        <v>1060</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>682</v>
+        <v>1061</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>683</v>
+        <v>232</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="9" t="s">
-        <v>684</v>
+        <v>1204</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>685</v>
+        <v>1205</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>686</v>
+        <v>232</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="9" t="s">
-        <v>672</v>
+        <v>1207</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>673</v>
+        <v>1208</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>674</v>
+        <v>232</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="9" t="s">
-        <v>675</v>
+        <v>1210</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>676</v>
+        <v>1211</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>627</v>
+        <v>232</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>677</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="9" t="s">
-        <v>678</v>
+        <v>1213</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>679</v>
+        <v>1214</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>680</v>
+        <v>232</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="9" t="s">
-        <v>681</v>
+        <v>1216</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>682</v>
+        <v>1217</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>683</v>
+        <v>232</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="9" t="s">
-        <v>684</v>
+        <v>1219</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>685</v>
+        <v>1220</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>686</v>
+        <v>232</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="9" t="s">
-        <v>672</v>
+        <v>1222</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>673</v>
+        <v>1223</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>674</v>
+        <v>232</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="9" t="s">
-        <v>675</v>
+        <v>1225</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>676</v>
+        <v>1226</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>627</v>
+        <v>232</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>677</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="9" t="s">
-        <v>678</v>
+        <v>1228</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>679</v>
+        <v>1229</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>680</v>
+        <v>232</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="9" t="s">
-        <v>681</v>
+        <v>1231</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>682</v>
+        <v>1232</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>683</v>
+        <v>232</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="9" t="s">
-        <v>684</v>
+        <v>1234</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>685</v>
+        <v>1235</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>686</v>
+        <v>232</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>674</v>
-      </c>
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
     </row>
     <row r="143">
-      <c r="A143" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>677</v>
-      </c>
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
     </row>
     <row r="144">
-      <c r="A144" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>680</v>
-      </c>
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
     </row>
     <row r="145">
-      <c r="A145" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>683</v>
-      </c>
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
     </row>
     <row r="146">
-      <c r="A146" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>686</v>
-      </c>
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
     </row>
     <row r="147">
-      <c r="A147" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>674</v>
-      </c>
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
     </row>
     <row r="148">
-      <c r="A148" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>677</v>
-      </c>
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
     </row>
     <row r="149">
-      <c r="A149" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>680</v>
-      </c>
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
     </row>
     <row r="150">
-      <c r="A150" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>683</v>
-      </c>
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
     </row>
     <row r="151">
-      <c r="A151" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>686</v>
-      </c>
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
     </row>
     <row r="152">
-      <c r="A152" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>689</v>
-      </c>
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
     </row>
     <row r="153">
-      <c r="A153" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>692</v>
-      </c>
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
     </row>
     <row r="154">
-      <c r="A154" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>695</v>
-      </c>
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
     </row>
     <row r="155">
-      <c r="A155" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>698</v>
-      </c>
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
     </row>
     <row r="156">
-      <c r="A156" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>701</v>
-      </c>
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
     </row>
     <row r="157">
-      <c r="A157" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>689</v>
-      </c>
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
     </row>
     <row r="158">
-      <c r="A158" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>692</v>
-      </c>
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
     </row>
     <row r="159">
-      <c r="A159" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D159" s="10" t="s">
-        <v>695</v>
-      </c>
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
     </row>
     <row r="160">
-      <c r="A160" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>698</v>
-      </c>
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
     </row>
     <row r="161">
-      <c r="A161" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>701</v>
-      </c>
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
     </row>
     <row r="162">
-      <c r="A162" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>689</v>
-      </c>
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
     </row>
     <row r="163">
-      <c r="A163" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>692</v>
-      </c>
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
     </row>
     <row r="164">
-      <c r="A164" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>695</v>
-      </c>
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
     </row>
     <row r="165">
-      <c r="A165" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>698</v>
-      </c>
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
     </row>
     <row r="166">
-      <c r="A166" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>701</v>
-      </c>
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/public/data/et.xlsx
+++ b/public/data/et.xlsx
@@ -7,6 +7,10 @@
     <sheet state="visible" name="Present Continous" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Present Perfect" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Present Perfect Continous" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Simple Past Tense" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Past Continuous Tense" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Past Perfect Tense" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Past Perfect Continuous Tense" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1477">
   <si>
     <t>Hindi</t>
   </si>
@@ -3725,6 +3729,726 @@
   </si>
   <si>
     <t>मैं (I) - Subject, उसकी (his) - Possessive pronoun, बात (listening) - Verb, सुन रहा हूँ (have been) - Auxiliary verb, जब से (since) - Conjunction, वह (he) - Subject, चिल्लाना शुरू हुआ है (started shouting) - Verb</t>
+  </si>
+  <si>
+    <t>उसने कठिन परीक्षा पास की।</t>
+  </si>
+  <si>
+    <t>He passed the difficult exam.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, कठिन परीक्षा (difficult exam) - Object, पास की (passed) - Verb</t>
+  </si>
+  <si>
+    <t>उन्होंने योजना को पूरी तरह बदल दिया।</t>
+  </si>
+  <si>
+    <t>They completely changed the plan.</t>
+  </si>
+  <si>
+    <t>उन्होंने (They) - Subject, योजना (plan) - Object, पूरी तरह बदल दिया (completely changed) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने उसकी मदद करने से इनकार कर दिया।</t>
+  </si>
+  <si>
+    <t>I refused to help him.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, उसकी मदद (help him) - Object, करने से इनकार कर दिया (refused) - Verb</t>
+  </si>
+  <si>
+    <t>वह अपनी गलती पर बहुत पछताया।</t>
+  </si>
+  <si>
+    <t>He regretted his mistake a lot.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, अपनी गलती (his mistake) - Object, बहुत पछताया (regretted a lot) - Verb</t>
+  </si>
+  <si>
+    <t>उसने सभी दस्तावेज़ नष्ट कर दिए।</t>
+  </si>
+  <si>
+    <t>He destroyed all the documents.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, सभी दस्तावेज़ (all the documents) - Object, नष्ट कर दिए (destroyed) - Verb</t>
+  </si>
+  <si>
+    <t>अध्यक्ष ने बैठक को स्थगित कर दिया।</t>
+  </si>
+  <si>
+    <t>The chairman postponed the meeting.</t>
+  </si>
+  <si>
+    <t>अध्यक्ष (The chairman) - Subject, बैठक (meeting) - Object, स्थगित कर दिया (postponed) - Verb</t>
+  </si>
+  <si>
+    <t>पुलिस ने संदिग्ध को गिरफ्तार किया।</t>
+  </si>
+  <si>
+    <t>The police arrested the suspect.</t>
+  </si>
+  <si>
+    <t>पुलिस (The police) - Subject, संदिग्ध (the suspect) - Object, गिरफ्तार किया (arrested) - Verb</t>
+  </si>
+  <si>
+    <t>न्यायाधीश ने अभियुक्त को दोषी ठहराया।</t>
+  </si>
+  <si>
+    <t>The judge declared the accused guilty.</t>
+  </si>
+  <si>
+    <t>न्यायाधीश (The judge) - Subject, अभियुक्त (the accused) - Object, दोषी ठहराया (declared guilty) - Verb</t>
+  </si>
+  <si>
+    <t>उसने अंधेरे कमरे में प्रवेश किया।</t>
+  </si>
+  <si>
+    <t>He entered the dark room.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, अंधेरे कमरे (dark room) - Object, में प्रवेश किया (entered) - Verb</t>
+  </si>
+  <si>
+    <t>मैंने अपने विचार स्पष्ट रूप से प्रस्तुत किए।</t>
+  </si>
+  <si>
+    <t>I presented my thoughts clearly.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, अपने विचार (my thoughts) - Object, स्पष्ट रूप से प्रस्तुत किए (presented clearly) - Verb</t>
+  </si>
+  <si>
+    <t>अभिनेता ने अपने प्रशंसकों को निराश किया।</t>
+  </si>
+  <si>
+    <t>The actor disappointed his fans.</t>
+  </si>
+  <si>
+    <t>अभिनेता (The actor) - Subject, अपने प्रशंसकों (his fans) - Object, निराश किया (disappointed) - Verb</t>
+  </si>
+  <si>
+    <t>विज्ञान ने मानव जीवन को बहुत प्रभावित किया।</t>
+  </si>
+  <si>
+    <t>Science greatly impacted human life.</t>
+  </si>
+  <si>
+    <t>विज्ञान (Science) - Subject, मानव जीवन (human life) - Object, बहुत प्रभावित किया (greatly impacted) - Verb</t>
+  </si>
+  <si>
+    <t>शिक्षक ने छात्रों को कड़ी सजा दी।</t>
+  </si>
+  <si>
+    <t>The teacher gave the students severe punishment.</t>
+  </si>
+  <si>
+    <t>शिक्षक (The teacher) - Subject, छात्रों (students) - Object, कड़ी सजा दी (gave severe punishment) - Verb</t>
+  </si>
+  <si>
+    <t>उन्होंने पुराने पुल को तोड़ दिया।</t>
+  </si>
+  <si>
+    <t>They demolished the old bridge.</t>
+  </si>
+  <si>
+    <t>उन्होंने (They) - Subject, पुराने पुल (old bridge) - Object, तोड़ दिया (demolished) - Verb</t>
+  </si>
+  <si>
+    <t>उसने मेरे प्रस्ताव को ठुकरा दिया।</t>
+  </si>
+  <si>
+    <t>He rejected my proposal.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, मेरे प्रस्ताव (my proposal) - Object, ठुकरा दिया (rejected) - Verb</t>
+  </si>
+  <si>
+    <t>संगीतकार ने एक अद्भुत धुन बनाई।</t>
+  </si>
+  <si>
+    <t>The musician created a wonderful tune.</t>
+  </si>
+  <si>
+    <t>संगीतकार (The musician) - Subject, एक अद्भुत धुन (a wonderful tune) - Object, बनाई (created) - Verb</t>
+  </si>
+  <si>
+    <t>उन्होंने अचानक बैठक छोड़ दी।</t>
+  </si>
+  <si>
+    <t>They suddenly left the meeting.</t>
+  </si>
+  <si>
+    <t>उन्होंने (They) - Subject, अचानक (suddenly) - Adverb, बैठक (meeting) - Object, छोड़ दी (left) - Verb</t>
+  </si>
+  <si>
+    <t>अधिकारियों ने नई नीति लागू की।</t>
+  </si>
+  <si>
+    <t>The authorities implemented a new policy.</t>
+  </si>
+  <si>
+    <t>अधिकारियों (The authorities) - Subject, नई नीति (new policy) - Object, लागू की (implemented) - Verb</t>
+  </si>
+  <si>
+    <t>उसने सभी कठिनाइयों का सामना किया।</t>
+  </si>
+  <si>
+    <t>He faced all difficulties.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, सभी कठिनाइयों (all difficulties) - Object, सामना किया (faced) - Verb</t>
+  </si>
+  <si>
+    <t>मुझे अचानक एक अनजान नंबर से कॉल आया।</t>
+  </si>
+  <si>
+    <t>I suddenly received a call from an unknown number.</t>
+  </si>
+  <si>
+    <t>मुझे (I) - Subject, अचानक (suddenly) - Adverb, एक अनजान नंबर से (from an unknown number) - Prepositional Phrase, कॉल आया (received a call) - Verb</t>
+  </si>
+  <si>
+    <t>वह जब बारिश हो रही थी तब छत पर टहल रहा था।</t>
+  </si>
+  <si>
+    <t>He was walking on the terrace when it was raining.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, जब बारिश हो रही थी (when it was raining) - Time phrase, छत पर (on the terrace) - Place, टहल रहा था (was walking) - Verb</t>
+  </si>
+  <si>
+    <t>हम सड़क के किनारे खड़े होकर बस का इंतजार कर रहे थे।</t>
+  </si>
+  <si>
+    <t>We were standing by the road waiting for the bus.</t>
+  </si>
+  <si>
+    <t>हम (We) - Subject, सड़क के किनारे (by the road) - Place, खड़े होकर (standing) - Action, बस का इंतजार कर रहे थे (were waiting for the bus) - Verb</t>
+  </si>
+  <si>
+    <t>जब मैं घर पहुँचा, तब वे गाने गा रहे थे।</t>
+  </si>
+  <si>
+    <t>When I reached home, they were singing songs.</t>
+  </si>
+  <si>
+    <t>जब मैं घर पहुँचा (when I reached home) - Time phrase, वे (they) - Subject, गाने (songs) - Object, गा रहे थे (were singing) - Verb</t>
+  </si>
+  <si>
+    <t>बिजली जाने से पहले हम फिल्म देख रहे थे।</t>
+  </si>
+  <si>
+    <t>We were watching a movie before the power went out.</t>
+  </si>
+  <si>
+    <t>हम (We) - Subject, बिजली जाने से पहले (before the power went out) - Time phrase, फिल्म (movie) - Object, देख रहे थे (were watching) - Verb</t>
+  </si>
+  <si>
+    <t>सड़क पर लोग तेज बारिश में दौड़ रहे थे।</t>
+  </si>
+  <si>
+    <t>People were running on the road in heavy rain.</t>
+  </si>
+  <si>
+    <t>लोग (People) - Subject, सड़क पर (on the road) - Place, तेज बारिश में (in heavy rain) - Condition, दौड़ रहे थे (were running) - Verb</t>
+  </si>
+  <si>
+    <t>जब शिक्षक कक्षा में आए, तब छात्र बातें कर रहे थे।</t>
+  </si>
+  <si>
+    <t>When the teacher entered the class, the students were talking.</t>
+  </si>
+  <si>
+    <t>जब शिक्षक कक्षा में आए (when the teacher entered the class) - Time phrase, छात्र (students) - Subject, बातें (talking) - Object, कर रहे थे (were doing) - Verb</t>
+  </si>
+  <si>
+    <t>बच्चे पार्क में झूला झूल रहे थे जब बारिश शुरू हुई।</t>
+  </si>
+  <si>
+    <t>The children were swinging in the park when it started raining.</t>
+  </si>
+  <si>
+    <t>बच्चे (children) - Subject, पार्क में (in the park) - Place, झूला झूल रहे थे (were swinging) - Verb, जब बारिश शुरू हुई (when it started raining) - Time phrase</t>
+  </si>
+  <si>
+    <t>मुझे कॉल करने के दौरान वह टीवी देख रहा था।</t>
+  </si>
+  <si>
+    <t>He was watching TV while calling me.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, टीवी (TV) - Object, देख रहा था (was watching) - Verb, मुझे कॉल करने के दौरान (while calling me) - Additional information</t>
+  </si>
+  <si>
+    <t>जब डॉक्टर आए, मरीज दर्द में चिल्ला रहा था।</t>
+  </si>
+  <si>
+    <t>When the doctor arrived, the patient was screaming in pain.</t>
+  </si>
+  <si>
+    <t>जब डॉक्टर आए (when the doctor arrived) - Time phrase, मरीज (patient) - Subject, दर्द में (in pain) - Condition, चिल्ला रहा था (was screaming) - Verb</t>
+  </si>
+  <si>
+    <t>हम पानी में तैर रहे थे जब तेज़ हवा चलने लगी।</t>
+  </si>
+  <si>
+    <t>We were swimming in the water when the strong wind started.</t>
+  </si>
+  <si>
+    <t>हम (We) - Subject, पानी में (in the water) - Place, तैर रहे थे (were swimming) - Verb, जब तेज़ हवा चलने लगी (when the strong wind started) - Time phrase</t>
+  </si>
+  <si>
+    <t>जब पुलिस पहुँची, चोर भागने की कोशिश कर रहे थे।</t>
+  </si>
+  <si>
+    <t>When the police arrived, the thieves were trying to escape.</t>
+  </si>
+  <si>
+    <t>जब पुलिस पहुँची (when the police arrived) - Time phrase, चोर (thieves) - Subject, भागने की कोशिश कर रहे थे (were trying to escape) - Verb</t>
+  </si>
+  <si>
+    <t>गुरुजी प्रवचन दे रहे थे जब भक्त ध्यान कर रहे थे।</t>
+  </si>
+  <si>
+    <t>The guru was giving a sermon while the devotees were meditating.</t>
+  </si>
+  <si>
+    <t>गुरुजी (The guru) - Subject, प्रवचन (sermon) - Object, दे रहे थे (was giving) - Verb, भक्त (devotees) - Subject 2, ध्यान कर रहे थे (were meditating) - Parallel action</t>
+  </si>
+  <si>
+    <t>जब मैंने खिड़की से देखा, लोग झगड़ रहे थे।</t>
+  </si>
+  <si>
+    <t>When I looked out of the window, people were fighting.</t>
+  </si>
+  <si>
+    <t>जब मैंने खिड़की से देखा (when I looked out of the window) - Time phrase, लोग (people) - Subject, झगड़ रहे थे (were fighting) - Verb</t>
+  </si>
+  <si>
+    <t>जब ट्रेन स्टेशन पर रुकी, यात्री उतर रहे थे।</t>
+  </si>
+  <si>
+    <t>When the train stopped at the station, passengers were getting off.</t>
+  </si>
+  <si>
+    <t>जब ट्रेन स्टेशन पर रुकी (when the train stopped at the station) - Time phrase, यात्री (passengers) - Subject, उतर रहे थे (were getting off) - Verb</t>
+  </si>
+  <si>
+    <t>जब मैं स्कूल गया, बच्चे प्रार्थना कर रहे थे।</t>
+  </si>
+  <si>
+    <t>When I went to school, the children were praying.</t>
+  </si>
+  <si>
+    <t>जब मैं स्कूल गया (when I went to school) - Time phrase, बच्चे (children) - Subject, प्रार्थना कर रहे थे (were praying) - Verb</t>
+  </si>
+  <si>
+    <t>जब दुकान बंद हुई, ग्राहक सामान खरीद रहे थे।</t>
+  </si>
+  <si>
+    <t>When the shop closed, customers were buying goods.</t>
+  </si>
+  <si>
+    <t>जब दुकान बंद हुई (when the shop closed) - Time phrase, ग्राहक (customers) - Subject, सामान (goods) - Object, खरीद रहे थे (were buying) - Verb</t>
+  </si>
+  <si>
+    <t>हम पेड़ के नीचे आराम कर रहे थे जब हवा तेज़ हुई।</t>
+  </si>
+  <si>
+    <t>We were resting under the tree when the wind became strong.</t>
+  </si>
+  <si>
+    <t>हम (We) - Subject, पेड़ के नीचे (under the tree) - Place, आराम कर रहे थे (were resting) - Verb, जब हवा तेज़ हुई (when the wind became strong) - Time phrase</t>
+  </si>
+  <si>
+    <t>जब ट्रेन छूट रही थी, यात्री भागकर चढ़ने की कोशिश कर रहे थे।</t>
+  </si>
+  <si>
+    <t>When the train was leaving, passengers were trying to board it by running.</t>
+  </si>
+  <si>
+    <t>जब ट्रेन छूट रही थी (when the train was leaving) - Time phrase, यात्री (passengers) - Subject, भागकर चढ़ने की कोशिश कर रहे थे (were trying to board by running) - Verb</t>
+  </si>
+  <si>
+    <t>जब आग लगी, लोग इमारत से बाहर निकल रहे थे।</t>
+  </si>
+  <si>
+    <t>When the fire broke out, people were exiting the building.</t>
+  </si>
+  <si>
+    <t>जब आग लगी (when the fire broke out) - Time phrase, लोग (people) - Subject, इमारत से बाहर (out of the building) - Place, निकल रहे थे (were exiting) - Verb</t>
+  </si>
+  <si>
+    <t>संगीतकार सुर मिला रहे थे जब गायक गा रहा था।</t>
+  </si>
+  <si>
+    <t>The musicians were tuning their instruments while the singer was singing.</t>
+  </si>
+  <si>
+    <t>संगीतकार (musicians) - Subject, सुर मिला रहे थे (were tuning their instruments) - Verb, जब गायक गा रहा था (while the singer was singing) - Parallel action</t>
+  </si>
+  <si>
+    <t>उसने जाने से पहले दरवाजा बंद कर दिया था।</t>
+  </si>
+  <si>
+    <t>He had closed the door before leaving.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, जाने से पहले (before leaving) - Time phrase, दरवाजा (the door) - Object, बंद कर दिया था (had closed) - Verb</t>
+  </si>
+  <si>
+    <t>हमने पुलिस के आने से पहले अपराधी को पकड़ लिया था।</t>
+  </si>
+  <si>
+    <t>We had caught the criminal before the police arrived.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, पुलिस के आने से पहले (before the police arrived) - Time phrase, अपराधी (criminal) - Object, पकड़ लिया था (had caught) - Verb</t>
+  </si>
+  <si>
+    <t>शिक्षक ने परीक्षा शुरू होने से पहले निर्देश दे दिए थे।</t>
+  </si>
+  <si>
+    <t>The teacher had given instructions before the exam started.</t>
+  </si>
+  <si>
+    <t>शिक्षक (The teacher) - Subject, परीक्षा शुरू होने से पहले (before the exam started) - Time phrase, निर्देश (instructions) - Object, दे दिए थे (had given) - Verb</t>
+  </si>
+  <si>
+    <t>वह बारिश शुरू होने से पहले घर पहुँच गया था।</t>
+  </si>
+  <si>
+    <t>He had reached home before it started raining.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, बारिश शुरू होने से पहले (before it started raining) - Time phrase, घर (home) - Object, पहुँच गया था (had reached) - Verb</t>
+  </si>
+  <si>
+    <t>हमने ट्रेन छूटने से पहले टिकट खरीद लिए थे।</t>
+  </si>
+  <si>
+    <t>We had bought the tickets before the train left.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, ट्रेन छूटने से पहले (before the train left) - Time phrase, टिकट (tickets) - Object, खरीद लिए थे (had bought) - Verb</t>
+  </si>
+  <si>
+    <t>अध्यापक के आने से पहले छात्र शोर मचा चुके थे।</t>
+  </si>
+  <si>
+    <t>The students had already made noise before the teacher arrived.</t>
+  </si>
+  <si>
+    <t>छात्र (The students) - Subject, अध्यापक के आने से पहले (before the teacher arrived) - Time phrase, शोर (noise) - Object, मचा चुके थे (had made) - Verb</t>
+  </si>
+  <si>
+    <t>उसने परीक्षा से पहले सारी किताबें पढ़ ली थीं।</t>
+  </si>
+  <si>
+    <t>He had read all the books before the exam.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, परीक्षा से पहले (before the exam) - Time phrase, सारी किताबें (all the books) - Object, पढ़ ली थीं (had read) - Verb</t>
+  </si>
+  <si>
+    <t>हमने प्रोजेक्ट की डेडलाइन से पहले काम पूरा कर लिया था।</t>
+  </si>
+  <si>
+    <t>We had completed the work before the project deadline.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, प्रोजेक्ट की डेडलाइन से पहले (before the project deadline) - Time phrase, काम (work) - Object, पूरा कर लिया था (had completed) - Verb</t>
+  </si>
+  <si>
+    <t>मुझे डॉक्टर के आने से पहले आराम करने की सलाह दी गई थी।</t>
+  </si>
+  <si>
+    <t>I had been advised to rest before the doctor arrived.</t>
+  </si>
+  <si>
+    <t>मुझे (I) - Subject, डॉक्टर के आने से पहले (before the doctor arrived) - Time phrase, आराम करने की सलाह (advice to rest) - Object, दी गई थी (had been given) - Verb</t>
+  </si>
+  <si>
+    <t>उसने मुझे आने से पहले फोन कर दिया था।</t>
+  </si>
+  <si>
+    <t>He had called me before coming.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, मुझे (me) - Object, आने से पहले (before coming) - Time phrase, फोन कर दिया था (had called) - Verb</t>
+  </si>
+  <si>
+    <t>बच्चों के सोने से पहले माँ ने उन्हें कहानी सुना दी थी।</t>
+  </si>
+  <si>
+    <t>The mother had told them a story before the children slept.</t>
+  </si>
+  <si>
+    <t>माँ (The mother) - Subject, बच्चों के सोने से पहले (before the children slept) - Time phrase, कहानी (story) - Object, सुना दी थी (had told) - Verb</t>
+  </si>
+  <si>
+    <t>फिल्म शुरू होने से पहले हमने पॉपकॉर्न खरीद लिया था।</t>
+  </si>
+  <si>
+    <t>We had bought popcorn before the movie started.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, फिल्म शुरू होने से पहले (before the movie started) - Time phrase, पॉपकॉर्न (popcorn) - Object, खरीद लिया था (had bought) - Verb</t>
+  </si>
+  <si>
+    <t>उसने घर पहुँचने से पहले मुझे मैसेज भेजा था।</t>
+  </si>
+  <si>
+    <t>He had sent me a message before reaching home.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, घर पहुँचने से पहले (before reaching home) - Time phrase, मुझे (me) - Object, मैसेज भेजा था (had sent) - Verb</t>
+  </si>
+  <si>
+    <t>टीम के पहुँचने से पहले कप्तान ने रणनीति तय कर ली थी।</t>
+  </si>
+  <si>
+    <t>The captain had decided the strategy before the team arrived.</t>
+  </si>
+  <si>
+    <t>कप्तान (The captain) - Subject, टीम के पहुँचने से पहले (before the team arrived) - Time phrase, रणनीति (strategy) - Object, तय कर ली थी (had decided) - Verb</t>
+  </si>
+  <si>
+    <t>बिजली कटने से पहले मैंने लैपटॉप चार्ज कर लिया था।</t>
+  </si>
+  <si>
+    <t>I had charged my laptop before the power went out.</t>
+  </si>
+  <si>
+    <t>मैंने (I) - Subject, बिजली कटने से पहले (before the power went out) - Time phrase, लैपटॉप (laptop) - Object, चार्ज कर लिया था (had charged) - Verb</t>
+  </si>
+  <si>
+    <t>मुझे डॉक्टर ने देखने से पहले दवाई लेने के लिए कहा था।</t>
+  </si>
+  <si>
+    <t>The doctor had told me to take medicine before seeing me.</t>
+  </si>
+  <si>
+    <t>डॉक्टर (The doctor) - Subject, मुझे (me) - Object, देखने से पहले (before seeing me) - Time phrase, दवाई लेने के लिए कहा था (had told to take medicine) - Verb</t>
+  </si>
+  <si>
+    <t>हमने परीक्षा परिणाम घोषित होने से पहले आवेदन भर दिया था।</t>
+  </si>
+  <si>
+    <t>We had filled the application before the exam results were announced.</t>
+  </si>
+  <si>
+    <t>हमने (We) - Subject, परीक्षा परिणाम घोषित होने से पहले (before the exam results were announced) - Time phrase, आवेदन (application) - Object, भर दिया था (had filled) - Verb</t>
+  </si>
+  <si>
+    <t>रिपोर्ट प्रकाशित होने से पहले लेखक ने सभी त्रुटियाँ सुधार ली थीं।</t>
+  </si>
+  <si>
+    <t>The writer had corrected all errors before the report was published.</t>
+  </si>
+  <si>
+    <t>लेखक (The writer) - Subject, रिपोर्ट प्रकाशित होने से पहले (before the report was published) - Time phrase, सभी त्रुटियाँ (all errors) - Object, सुधार ली थीं (had corrected) - Verb</t>
+  </si>
+  <si>
+    <t>उसने स्टेडियम जाने से पहले टिकट बुक कर लिया था।</t>
+  </si>
+  <si>
+    <t>He had booked the ticket before going to the stadium.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, स्टेडियम जाने से पहले (before going to the stadium) - Time phrase, टिकट (ticket) - Object, बुक कर लिया था (had booked) - Verb</t>
+  </si>
+  <si>
+    <t>वह ट्रेन छूटने से पहले स्टेशन पहुँच चुका था।</t>
+  </si>
+  <si>
+    <t>He had reached the station before the train left.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, ट्रेन छूटने से पहले (before the train left) - Time phrase, स्टेशन (station) - Object, पहुँच चुका था (had reached) - Verb</t>
+  </si>
+  <si>
+    <t>वह तीन घंटे से बारिश में भीग रहा था।</t>
+  </si>
+  <si>
+    <t>He had been getting wet in the rain for three hours.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, तीन घंटे से (for three hours) - Time duration, बारिश में (in the rain) - Place, भीग रहा था (had been getting wet) - Verb</t>
+  </si>
+  <si>
+    <t>हम दो दिनों से इस समस्या पर काम कर रहे थे।</t>
+  </si>
+  <si>
+    <t>We had been working on this problem for two days.</t>
+  </si>
+  <si>
+    <t>हम (We) - Subject, दो दिनों से (for two days) - Time duration, इस समस्या पर (on this problem) - Object, काम कर रहे थे (had been working) - Verb</t>
+  </si>
+  <si>
+    <t>वह सुबह से बिना कुछ खाए यात्रा कर रहा था।</t>
+  </si>
+  <si>
+    <t>He had been traveling since morning without eating anything.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, सुबह से (since morning) - Time phrase, बिना कुछ खाए (without eating anything) - Condition, यात्रा कर रहा था (had been traveling) - Verb</t>
+  </si>
+  <si>
+    <t>पिछले साल से किसान अपनी फसल के लिए संघर्ष कर रहे थे।</t>
+  </si>
+  <si>
+    <t>The farmers had been struggling for their crops since last year.</t>
+  </si>
+  <si>
+    <t>किसान (The farmers) - Subject, पिछले साल से (since last year) - Time phrase, अपनी फसल के लिए (for their crops) - Purpose, संघर्ष कर रहे थे (had been struggling) - Verb</t>
+  </si>
+  <si>
+    <t>बच्चे दो घंटे से चुपचाप चित्र बना रहे थे।</t>
+  </si>
+  <si>
+    <t>The children had been quietly drawing pictures for two hours.</t>
+  </si>
+  <si>
+    <t>बच्चे (The children) - Subject, दो घंटे से (for two hours) - Time duration, चुपचाप (quietly) - Manner, चित्र बना रहे थे (had been drawing pictures) - Verb</t>
+  </si>
+  <si>
+    <t>हम कई महीनों से उस कंपनी के लिए काम कर रहे थे।</t>
+  </si>
+  <si>
+    <t>We had been working for that company for several months.</t>
+  </si>
+  <si>
+    <t>हम (We) - Subject, कई महीनों से (for several months) - Time duration, उस कंपनी के लिए (for that company) - Object, काम कर रहे थे (had been working) - Verb</t>
+  </si>
+  <si>
+    <t>वह घंटों से किताब पढ़ रहा था जब बिजली चली गई।</t>
+  </si>
+  <si>
+    <t>He had been reading a book for hours when the power went out.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, घंटों से (for hours) - Time duration, किताब (book) - Object, पढ़ रहा था (had been reading) - Verb, जब बिजली चली गई (when the power went out) - Time clause</t>
+  </si>
+  <si>
+    <t>शिक्षक एक घंटे से छात्रों को व्याख्यान दे रहे थे।</t>
+  </si>
+  <si>
+    <t>The teacher had been giving a lecture to the students for an hour.</t>
+  </si>
+  <si>
+    <t>शिक्षक (The teacher) - Subject, एक घंटे से (for an hour) - Time duration, छात्रों को (to the students) - Object, व्याख्यान दे रहे थे (had been giving a lecture) - Verb</t>
+  </si>
+  <si>
+    <t>जब पुलिस पहुँची, चोर कई घंटों से छिपा हुआ था।</t>
+  </si>
+  <si>
+    <t>When the police arrived, the thief had been hiding for several hours.</t>
+  </si>
+  <si>
+    <t>जब पुलिस पहुँची (when the police arrived) - Time phrase, चोर (the thief) - Subject, कई घंटों से (for several hours) - Time duration, छिपा हुआ था (had been hiding) - Verb</t>
+  </si>
+  <si>
+    <t>वह दो साल से नई नौकरी की तलाश कर रहा था।</t>
+  </si>
+  <si>
+    <t>He had been looking for a new job for two years.</t>
+  </si>
+  <si>
+    <t>वह (He) - Subject, दो साल से (for two years) - Time duration, नई नौकरी की तलाश (new job search) - Object, कर रहा था (had been doing) - Verb</t>
+  </si>
+  <si>
+    <t>बच्चे स्कूल में दो घंटे से खेल रहे थे।</t>
+  </si>
+  <si>
+    <t>The children had been playing in the school for two hours.</t>
+  </si>
+  <si>
+    <t>बच्चे (The children) - Subject, स्कूल में (in the school) - Place, दो घंटे से (for two hours) - Time duration, खेल रहे थे (had been playing) - Verb</t>
+  </si>
+  <si>
+    <t>कंपनी कई सालों से इस प्रोजेक्ट पर काम कर रही थी।</t>
+  </si>
+  <si>
+    <t>The company had been working on this project for several years.</t>
+  </si>
+  <si>
+    <t>कंपनी (The company) - Subject, कई सालों से (for several years) - Time duration, इस प्रोजेक्ट पर (on this project) - Object, काम कर रही थी (had been working) - Verb</t>
+  </si>
+  <si>
+    <t>जब बारिश रुकी, हम दो घंटे से भीग रहे थे।</t>
+  </si>
+  <si>
+    <t>When the rain stopped, we had been getting wet for two hours.</t>
+  </si>
+  <si>
+    <t>जब बारिश रुकी (when the rain stopped) - Time phrase, हम (we) - Subject, दो घंटे से (for two hours) - Time duration, भीग रहे थे (had been getting wet) - Verb</t>
+  </si>
+  <si>
+    <t>वे सुबह से ट्रैकिंग कर रहे थे जब हमें फोन आया।</t>
+  </si>
+  <si>
+    <t>They had been trekking since morning when we got the call.</t>
+  </si>
+  <si>
+    <t>वे (They) - Subject, सुबह से (since morning) - Time duration, ट्रैकिंग कर रहे थे (had been trekking) - Verb, जब हमें फोन आया (when we got the call) - Time clause</t>
+  </si>
+  <si>
+    <t>शहर में पिछले हफ्ते से विरोध प्रदर्शन हो रहा था।</t>
+  </si>
+  <si>
+    <t>The protest had been happening in the city since last week.</t>
+  </si>
+  <si>
+    <t>शहर में (in the city) - Place, पिछले हफ्ते से (since last week) - Time duration, विरोध प्रदर्शन (protest) - Subject, हो रहा था (had been happening) - Verb</t>
+  </si>
+  <si>
+    <t>उसने कई घंटों से खाना नहीं खाया था।</t>
+  </si>
+  <si>
+    <t>He had not eaten food for several hours.</t>
+  </si>
+  <si>
+    <t>उसने (He) - Subject, कई घंटों से (for several hours) - Time duration, खाना (food) - Object, नहीं खाया था (had not eaten) - Verb</t>
+  </si>
+  <si>
+    <t>जब हमने दरवाजा खोला, वह कई घंटों से दरवाजे पर खड़ा था।</t>
+  </si>
+  <si>
+    <t>When we opened the door, he had been standing at the door for several hours.</t>
+  </si>
+  <si>
+    <t>जब हमने दरवाजा खोला (when we opened the door) - Time phrase, वह (he) - Subject, कई घंटों से (for several hours) - Time duration, दरवाजे पर (at the door) - Place, खड़ा था (had been standing) - Verb</t>
+  </si>
+  <si>
+    <t>गायक रातभर संगीत का अभ्यास कर रहा था।</t>
+  </si>
+  <si>
+    <t>The singer had been practicing music all night.</t>
+  </si>
+  <si>
+    <t>गायक (The singer) - Subject, रातभर (all night) - Time duration, संगीत (music) - Object, अभ्यास कर रहा था (had been practicing) - Verb</t>
+  </si>
+  <si>
+    <t>मज़दूर कई दिनों से पुल का निर्माण कर रहे थे।</t>
+  </si>
+  <si>
+    <t>The laborers had been constructing the bridge for several days.</t>
+  </si>
+  <si>
+    <t>मज़दूर (The laborers) - Subject, कई दिनों से (for several days) - Time duration, पुल (bridge) - Object, निर्माण कर रहे थे (had been constructing) - Verb</t>
+  </si>
+  <si>
+    <t>पिछले कुछ हफ्तों से वैज्ञानिक इस समस्या पर शोध कर रहे थे।</t>
+  </si>
+  <si>
+    <t>The scientists had been researching this problem for the past few weeks.</t>
+  </si>
+  <si>
+    <t>वैज्ञानिक (The scientists) - Subject, पिछले कुछ हफ्तों से (for the past few weeks) - Time duration, इस समस्या पर (on this problem) - Object, शोध कर रहे थे (had been researching) - Verb</t>
   </si>
 </sst>
 </file>
@@ -3856,6 +4580,22 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -66005,4 +66745,1240 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>